--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="EsteLivro" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="gantt 1semestre" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>Plano</t>
   </si>
@@ -356,6 +356,24 @@
   </si>
   <si>
     <t>Review of thesis by alternative person within University recommended</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>Julho</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
   </si>
 </sst>
 </file>
@@ -525,7 +543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -822,6 +840,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -847,7 +911,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,6 +975,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,76 +1014,64 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Activity" xfId="2"/>
-    <cellStyle name="Cabeçalho 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6"/>
@@ -1646,10 +1728,13 @@
   <sheetPr codeName="Folha1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BQ23"/>
+  <dimension ref="B2:BZ23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1665,27 +1750,27 @@
     <col min="9" max="28" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="2:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1727,27 +1812,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+    <row r="4" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:78" x14ac:dyDescent="0.3">
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="2:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:78" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -1765,15 +1850,70 @@
         <v>6</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-    </row>
-    <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="51"/>
+      <c r="BA6" s="51"/>
+      <c r="BB6" s="51"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
+      <c r="BF6" s="51"/>
+      <c r="BG6" s="51"/>
+      <c r="BH6" s="51"/>
+      <c r="BI6" s="51"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="51"/>
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="51"/>
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="51"/>
+      <c r="BP6" s="51"/>
+    </row>
+    <row r="7" spans="2:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1793,80 +1933,90 @@
         <v>7</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX7" s="23"/>
-      <c r="AY7" s="23"/>
-      <c r="AZ7" s="23"/>
-      <c r="BA7" s="23"/>
-      <c r="BB7" s="23"/>
-      <c r="BC7" s="23"/>
-      <c r="BD7" s="23"/>
-      <c r="BE7" s="23"/>
-      <c r="BF7" s="23"/>
-      <c r="BG7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="21"/>
-      <c r="BM7" s="21"/>
-      <c r="BN7" s="21"/>
-      <c r="BO7" s="21"/>
-      <c r="BP7" s="21"/>
-    </row>
-    <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="50"/>
+      <c r="BG7" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH7" s="47"/>
+      <c r="BI7" s="47"/>
+      <c r="BJ7" s="47"/>
+      <c r="BK7" s="47"/>
+      <c r="BL7" s="47"/>
+      <c r="BM7" s="47"/>
+      <c r="BN7" s="47"/>
+      <c r="BO7" s="47"/>
+      <c r="BP7" s="47"/>
+      <c r="BQ7" s="47"/>
+      <c r="BR7" s="47"/>
+      <c r="BS7" s="47"/>
+      <c r="BT7" s="47"/>
+      <c r="BU7" s="47"/>
+      <c r="BV7" s="47"/>
+      <c r="BW7" s="47"/>
+      <c r="BX7" s="47"/>
+      <c r="BY7" s="47"/>
+      <c r="BZ7" s="47"/>
+    </row>
+    <row r="8" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1874,189 +2024,189 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="19">
+      <c r="I8" s="46">
         <v>1</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="46">
         <v>2</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="46">
         <v>3</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="46">
         <v>4</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="46">
         <v>5</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="46">
         <v>6</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="46">
         <v>7</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="46">
         <v>8</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="46">
         <v>9</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="46">
         <v>10</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="46">
         <v>11</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="46">
         <v>12</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="46">
         <v>13</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="46">
         <v>14</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="46">
         <v>15</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="46">
         <v>16</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="46">
         <v>17</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="46">
         <v>18</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="46">
         <v>19</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="46">
         <v>20</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AC8" s="46">
         <v>21</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AD8" s="46">
         <v>22</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AE8" s="46">
         <v>23</v>
       </c>
-      <c r="AF8" s="19">
+      <c r="AF8" s="46">
         <v>24</v>
       </c>
-      <c r="AG8" s="19">
+      <c r="AG8" s="46">
         <v>25</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AH8" s="46">
         <v>26</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="AI8" s="46">
         <v>27</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="AJ8" s="46">
         <v>28</v>
       </c>
-      <c r="AK8" s="19">
+      <c r="AK8" s="46">
         <v>29</v>
       </c>
-      <c r="AL8" s="19">
+      <c r="AL8" s="46">
         <v>30</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AM8" s="46">
         <v>31</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AN8" s="46">
         <v>32</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AO8" s="46">
         <v>33</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AP8" s="46">
         <v>34</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AQ8" s="46">
         <v>35</v>
       </c>
-      <c r="AR8" s="3">
+      <c r="AR8" s="46">
         <v>36</v>
       </c>
-      <c r="AS8" s="3">
+      <c r="AS8" s="46">
         <v>37</v>
       </c>
-      <c r="AT8" s="3">
+      <c r="AT8" s="46">
         <v>38</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="AU8" s="46">
         <v>39</v>
       </c>
-      <c r="AV8" s="3">
+      <c r="AV8" s="46">
         <v>40</v>
       </c>
-      <c r="AW8" s="19">
+      <c r="AW8" s="46">
         <v>41</v>
       </c>
-      <c r="AX8" s="19">
+      <c r="AX8" s="46">
         <v>42</v>
       </c>
-      <c r="AY8" s="19">
+      <c r="AY8" s="46">
         <v>43</v>
       </c>
-      <c r="AZ8" s="19">
+      <c r="AZ8" s="46">
         <v>44</v>
       </c>
-      <c r="BA8" s="19">
+      <c r="BA8" s="46">
         <v>45</v>
       </c>
-      <c r="BB8" s="19">
+      <c r="BB8" s="46">
         <v>46</v>
       </c>
-      <c r="BC8" s="19">
+      <c r="BC8" s="46">
         <v>47</v>
       </c>
-      <c r="BD8" s="19">
+      <c r="BD8" s="46">
         <v>48</v>
       </c>
-      <c r="BE8" s="19">
+      <c r="BE8" s="46">
         <v>49</v>
       </c>
-      <c r="BF8" s="19">
+      <c r="BF8" s="46">
         <v>50</v>
       </c>
-      <c r="BG8" s="3">
+      <c r="BG8" s="46">
         <v>51</v>
       </c>
-      <c r="BH8" s="3">
+      <c r="BH8" s="46">
         <v>52</v>
       </c>
-      <c r="BI8" s="3">
+      <c r="BI8" s="46">
         <v>53</v>
       </c>
-      <c r="BJ8" s="3">
+      <c r="BJ8" s="46">
         <v>54</v>
       </c>
-      <c r="BK8" s="3">
+      <c r="BK8" s="46">
         <v>55</v>
       </c>
-      <c r="BL8" s="3">
+      <c r="BL8" s="46">
         <v>56</v>
       </c>
-      <c r="BM8" s="3">
+      <c r="BM8" s="46">
         <v>57</v>
       </c>
-      <c r="BN8" s="3">
+      <c r="BN8" s="46">
         <v>58</v>
       </c>
-      <c r="BO8" s="3">
+      <c r="BO8" s="46">
         <v>59</v>
       </c>
-      <c r="BP8" s="3">
+      <c r="BP8" s="46">
         <v>60</v>
       </c>
       <c r="BQ8" s="1"/>
     </row>
-    <row r="9" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:78" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>54</v>
       </c>
@@ -2069,12 +2219,14 @@
       <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="15">
+        <v>20</v>
+      </c>
       <c r="G9" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
@@ -2094,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>55</v>
       </c>
@@ -2104,7 +2256,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>56</v>
       </c>
@@ -2114,7 +2266,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>57</v>
       </c>
@@ -2124,7 +2276,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>58</v>
       </c>
@@ -2134,7 +2286,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:78" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>65</v>
       </c>
@@ -2150,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:78" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>59</v>
       </c>
@@ -2216,8 +2368,12 @@
       <c r="D21" s="15">
         <v>10</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="15">
+        <v>40</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
       <c r="G21" s="16">
         <v>0</v>
       </c>
@@ -2243,14 +2399,16 @@
       <c r="G23" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="BQ7:BZ7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:AB7"/>
+    <mergeCell ref="AC7:AL7"/>
+    <mergeCell ref="AM7:AV7"/>
+    <mergeCell ref="AW7:BF7"/>
     <mergeCell ref="BG7:BP7"/>
     <mergeCell ref="B2:I4"/>
-    <mergeCell ref="AW7:BF7"/>
-    <mergeCell ref="AM7:AV7"/>
-    <mergeCell ref="AC7:AL7"/>
-    <mergeCell ref="S7:AB7"/>
-    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="I6:BP6"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP23">
     <cfRule type="expression" dxfId="19" priority="1">
@@ -2353,26 +2511,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2415,14 +2573,14 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -2480,78 +2638,78 @@
         <v>7</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="21" t="s">
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="23" t="s">
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="21" t="s">
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="23" t="s">
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AX7" s="23"/>
-      <c r="AY7" s="23"/>
-      <c r="AZ7" s="23"/>
-      <c r="BA7" s="23"/>
-      <c r="BB7" s="23"/>
-      <c r="BC7" s="23"/>
-      <c r="BD7" s="23"/>
-      <c r="BE7" s="23"/>
-      <c r="BF7" s="23"/>
-      <c r="BG7" s="21" t="s">
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="33"/>
+      <c r="BA7" s="33"/>
+      <c r="BB7" s="33"/>
+      <c r="BC7" s="33"/>
+      <c r="BD7" s="33"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="21"/>
-      <c r="BM7" s="21"/>
-      <c r="BN7" s="21"/>
-      <c r="BO7" s="21"/>
-      <c r="BP7" s="21"/>
+      <c r="BH7" s="31"/>
+      <c r="BI7" s="31"/>
+      <c r="BJ7" s="31"/>
+      <c r="BK7" s="31"/>
+      <c r="BL7" s="31"/>
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="31"/>
+      <c r="BO7" s="31"/>
+      <c r="BP7" s="31"/>
     </row>
     <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -2892,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,13 +3062,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2918,184 +3076,184 @@
       <c r="A2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="39"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="39"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="41"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="38"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="37"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="41"/>
+      <c r="C23" s="38"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="23" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3109,55 +3267,50 @@
       <c r="A37" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="37" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="33" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="38"/>
+      <c r="C38" s="39"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="33" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="38"/>
+      <c r="C39" s="39"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="33" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="38"/>
+      <c r="C40" s="39"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="33" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="38"/>
+      <c r="C41" s="39"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="39"/>
-      <c r="B42" s="40" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="41"/>
+      <c r="C42" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="A13:A18"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="A19:A20"/>
@@ -3167,6 +3320,11 @@
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="A13:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -4,29 +4,38 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="EsteLivro" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gantt 1semestre" sheetId="1" r:id="rId1"/>
-    <sheet name="gantt 2semestre" sheetId="3" r:id="rId2"/>
-    <sheet name="riscos" sheetId="2" r:id="rId3"/>
+    <sheet name="gantt 1semestre real" sheetId="4" r:id="rId2"/>
+    <sheet name="gantt 2semestre" sheetId="3" r:id="rId3"/>
+    <sheet name="riscos" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="PercentagemConcluída" localSheetId="1">'gantt 2semestre'!PercentagemConcluídaAlém*'gantt 2semestre'!PeríodoDoPlano</definedName>
+    <definedName name="PercentagemConcluída" localSheetId="1">'gantt 1semestre real'!PercentagemConcluídaAlém*'gantt 1semestre real'!PeríodoDoPlano</definedName>
+    <definedName name="PercentagemConcluída" localSheetId="2">'gantt 2semestre'!PercentagemConcluídaAlém*'gantt 2semestre'!PeríodoDoPlano</definedName>
     <definedName name="PercentagemConcluída">PercentagemConcluídaAlém*PeríodoDoPlano</definedName>
-    <definedName name="PercentagemConcluídaAlém" localSheetId="1">('gantt 2semestre'!A$8=MEDIAN('gantt 2semestre'!A$8,'gantt 2semestre'!$E1,'gantt 2semestre'!$E1+'gantt 2semestre'!$F1)*('gantt 2semestre'!$E1&gt;0))*(('gantt 2semestre'!A$8&lt;(INT('gantt 2semestre'!$E1+'gantt 2semestre'!$F1*'gantt 2semestre'!$G1)))+('gantt 2semestre'!A$8='gantt 2semestre'!$E1))*('gantt 2semestre'!$G1&gt;0)</definedName>
+    <definedName name="PercentagemConcluídaAlém" localSheetId="1">('gantt 1semestre real'!A$8=MEDIAN('gantt 1semestre real'!A$8,'gantt 1semestre real'!$E1,'gantt 1semestre real'!$E1+'gantt 1semestre real'!$F1)*('gantt 1semestre real'!$E1&gt;0))*(('gantt 1semestre real'!A$8&lt;(INT('gantt 1semestre real'!$E1+'gantt 1semestre real'!$F1*'gantt 1semestre real'!$G1)))+('gantt 1semestre real'!A$8='gantt 1semestre real'!$E1))*('gantt 1semestre real'!$G1&gt;0)</definedName>
+    <definedName name="PercentagemConcluídaAlém" localSheetId="2">('gantt 2semestre'!A$8=MEDIAN('gantt 2semestre'!A$8,'gantt 2semestre'!$E1,'gantt 2semestre'!$E1+'gantt 2semestre'!$F1)*('gantt 2semestre'!$E1&gt;0))*(('gantt 2semestre'!A$8&lt;(INT('gantt 2semestre'!$E1+'gantt 2semestre'!$F1*'gantt 2semestre'!$G1)))+('gantt 2semestre'!A$8='gantt 2semestre'!$E1))*('gantt 2semestre'!$G1&gt;0)</definedName>
     <definedName name="PercentagemConcluídaAlém">('gantt 1semestre'!A$8=MEDIAN('gantt 1semestre'!A$8,'gantt 1semestre'!$E1,'gantt 1semestre'!$E1+'gantt 1semestre'!$F1)*('gantt 1semestre'!$E1&gt;0))*(('gantt 1semestre'!A$8&lt;(INT('gantt 1semestre'!$E1+'gantt 1semestre'!$F1*'gantt 1semestre'!$G1)))+('gantt 1semestre'!A$8='gantt 1semestre'!$E1))*('gantt 1semestre'!$G1&gt;0)</definedName>
-    <definedName name="período_selecionado" localSheetId="1">'gantt 2semestre'!$R$3</definedName>
+    <definedName name="período_selecionado" localSheetId="1">'gantt 1semestre real'!$R$3</definedName>
+    <definedName name="período_selecionado" localSheetId="2">'gantt 2semestre'!$R$3</definedName>
     <definedName name="período_selecionado">'gantt 1semestre'!$R$3</definedName>
-    <definedName name="PeríodoDoPlano" localSheetId="1">'gantt 2semestre'!A$8=MEDIAN('gantt 2semestre'!A$8,'gantt 2semestre'!$C1,'gantt 2semestre'!$C1+'gantt 2semestre'!$D1-1)</definedName>
+    <definedName name="PeríodoDoPlano" localSheetId="1">'gantt 1semestre real'!A$8=MEDIAN('gantt 1semestre real'!A$8,'gantt 1semestre real'!$C1,'gantt 1semestre real'!$C1+'gantt 1semestre real'!$D1-1)</definedName>
+    <definedName name="PeríodoDoPlano" localSheetId="2">'gantt 2semestre'!A$8=MEDIAN('gantt 2semestre'!A$8,'gantt 2semestre'!$C1,'gantt 2semestre'!$C1+'gantt 2semestre'!$D1-1)</definedName>
     <definedName name="PeríodoDoPlano">'gantt 1semestre'!A$8=MEDIAN('gantt 1semestre'!A$8,'gantt 1semestre'!$C1,'gantt 1semestre'!$C1+'gantt 1semestre'!$D1-1)</definedName>
-    <definedName name="PeríodoReal" localSheetId="1">'gantt 2semestre'!A$8=MEDIAN('gantt 2semestre'!A$8,'gantt 2semestre'!$E1,'gantt 2semestre'!$E1+'gantt 2semestre'!$F1-1)</definedName>
+    <definedName name="PeríodoReal" localSheetId="1">'gantt 1semestre real'!A$8=MEDIAN('gantt 1semestre real'!A$8,'gantt 1semestre real'!$E1,'gantt 1semestre real'!$E1+'gantt 1semestre real'!$F1-1)</definedName>
+    <definedName name="PeríodoReal" localSheetId="2">'gantt 2semestre'!A$8=MEDIAN('gantt 2semestre'!A$8,'gantt 2semestre'!$E1,'gantt 2semestre'!$E1+'gantt 2semestre'!$F1-1)</definedName>
     <definedName name="PeríodoReal">'gantt 1semestre'!A$8=MEDIAN('gantt 1semestre'!A$8,'gantt 1semestre'!$E1,'gantt 1semestre'!$E1+'gantt 1semestre'!$F1-1)</definedName>
-    <definedName name="Plano" localSheetId="1">'gantt 2semestre'!PeríodoDoPlano*('gantt 2semestre'!$C1&gt;0)</definedName>
+    <definedName name="Plano" localSheetId="1">'gantt 1semestre real'!PeríodoDoPlano*('gantt 1semestre real'!$C1&gt;0)</definedName>
+    <definedName name="Plano" localSheetId="2">'gantt 2semestre'!PeríodoDoPlano*('gantt 2semestre'!$C1&gt;0)</definedName>
     <definedName name="Plano">PeríodoDoPlano*('gantt 1semestre'!$C1&gt;0)</definedName>
-    <definedName name="Real" localSheetId="1">('gantt 2semestre'!PeríodoReal*('gantt 2semestre'!$E1&gt;0))*'gantt 2semestre'!PeríodoDoPlano</definedName>
+    <definedName name="Real" localSheetId="1">('gantt 1semestre real'!PeríodoReal*('gantt 1semestre real'!$E1&gt;0))*'gantt 1semestre real'!PeríodoDoPlano</definedName>
+    <definedName name="Real" localSheetId="2">('gantt 2semestre'!PeríodoReal*('gantt 2semestre'!$E1&gt;0))*'gantt 2semestre'!PeríodoDoPlano</definedName>
     <definedName name="Real">(PeríodoReal*('gantt 1semestre'!$E1&gt;0))*PeríodoDoPlano</definedName>
-    <definedName name="RealAlém" localSheetId="1">'gantt 2semestre'!PeríodoReal*('gantt 2semestre'!$E1&gt;0)</definedName>
+    <definedName name="RealAlém" localSheetId="1">'gantt 1semestre real'!PeríodoReal*('gantt 1semestre real'!$E1&gt;0)</definedName>
+    <definedName name="RealAlém" localSheetId="2">'gantt 2semestre'!PeríodoReal*('gantt 2semestre'!$E1&gt;0)</definedName>
     <definedName name="RealAlém">PeríodoReal*('gantt 1semestre'!$E1&gt;0)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -39,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="117">
   <si>
     <t>Plano</t>
   </si>
@@ -374,6 +383,78 @@
   </si>
   <si>
     <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Análise dos 13 tipos de falhas selecionadas pelo João Durães</t>
+  </si>
+  <si>
+    <t>Análise de parsers</t>
+  </si>
+  <si>
+    <t>Teste da ferramenta SAFE</t>
+  </si>
+  <si>
+    <t>Estudar fluxo do Eclipse CDT</t>
+  </si>
+  <si>
+    <t>Estudar operadores que não foram implementados pelo João Durães</t>
+  </si>
+  <si>
+    <t>Alteração de recursividade para visitor pattern</t>
+  </si>
+  <si>
+    <t>Verificar possibilidade e implementar todos os operadores com o CDT</t>
+  </si>
+  <si>
+    <t>SWIFI</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>HWFI</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>State of the art</t>
+  </si>
+  <si>
+    <t>Testing SAFE tool</t>
+  </si>
+  <si>
+    <t>Study Eclipse CDT Flow</t>
+  </si>
+  <si>
+    <t>Implement operators in Eclipse CDT</t>
+  </si>
+  <si>
+    <t>Study other operators</t>
+  </si>
+  <si>
+    <t>Modify recursive to visitor pattern</t>
+  </si>
+  <si>
+    <t>Write intermediate report</t>
+  </si>
+  <si>
+    <t>Describe future work</t>
+  </si>
+  <si>
+    <t>Prepare presentation</t>
+  </si>
+  <si>
+    <t>Analyse operators more representative</t>
+  </si>
+  <si>
+    <t>Analyse parser tools</t>
   </si>
 </sst>
 </file>
@@ -488,7 +569,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +623,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -911,7 +998,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,15 +1092,48 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1026,12 +1146,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1050,24 +1170,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="3" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Activity" xfId="2"/>
@@ -1079,7 +1182,149 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1394,6 +1639,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1447,6 +1696,58 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Controlo Giratório 5" descr="Period Highlight Spin Control" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1730,11 +2031,11 @@
   </sheetPr>
   <dimension ref="B2:BZ23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1751,26 +2052,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1813,14 +2114,14 @@
       </c>
     </row>
     <row r="4" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -1850,68 +2151,68 @@
         <v>6</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="51"/>
-      <c r="BA6" s="51"/>
-      <c r="BB6" s="51"/>
-      <c r="BC6" s="51"/>
-      <c r="BD6" s="51"/>
-      <c r="BE6" s="51"/>
-      <c r="BF6" s="51"/>
-      <c r="BG6" s="51"/>
-      <c r="BH6" s="51"/>
-      <c r="BI6" s="51"/>
-      <c r="BJ6" s="51"/>
-      <c r="BK6" s="51"/>
-      <c r="BL6" s="51"/>
-      <c r="BM6" s="51"/>
-      <c r="BN6" s="51"/>
-      <c r="BO6" s="51"/>
-      <c r="BP6" s="51"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="37"/>
+      <c r="BI6" s="37"/>
+      <c r="BJ6" s="37"/>
+      <c r="BK6" s="37"/>
+      <c r="BL6" s="37"/>
+      <c r="BM6" s="37"/>
+      <c r="BN6" s="37"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
     </row>
     <row r="7" spans="2:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -1933,88 +2234,88 @@
         <v>7</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="48" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="48" t="s">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="48" t="s">
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="48" t="s">
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="40"/>
+      <c r="AS7" s="40"/>
+      <c r="AT7" s="40"/>
+      <c r="AU7" s="40"/>
+      <c r="AV7" s="41"/>
+      <c r="AW7" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="49"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="50"/>
-      <c r="BG7" s="47" t="s">
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="40"/>
+      <c r="BF7" s="41"/>
+      <c r="BG7" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="BH7" s="47"/>
-      <c r="BI7" s="47"/>
-      <c r="BJ7" s="47"/>
-      <c r="BK7" s="47"/>
-      <c r="BL7" s="47"/>
-      <c r="BM7" s="47"/>
-      <c r="BN7" s="47"/>
-      <c r="BO7" s="47"/>
-      <c r="BP7" s="47"/>
-      <c r="BQ7" s="47"/>
-      <c r="BR7" s="47"/>
-      <c r="BS7" s="47"/>
-      <c r="BT7" s="47"/>
-      <c r="BU7" s="47"/>
-      <c r="BV7" s="47"/>
-      <c r="BW7" s="47"/>
-      <c r="BX7" s="47"/>
-      <c r="BY7" s="47"/>
-      <c r="BZ7" s="47"/>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
+      <c r="BL7" s="38"/>
+      <c r="BM7" s="38"/>
+      <c r="BN7" s="38"/>
+      <c r="BO7" s="38"/>
+      <c r="BP7" s="38"/>
+      <c r="BQ7" s="38"/>
+      <c r="BR7" s="38"/>
+      <c r="BS7" s="38"/>
+      <c r="BT7" s="38"/>
+      <c r="BU7" s="38"/>
+      <c r="BV7" s="38"/>
+      <c r="BW7" s="38"/>
+      <c r="BX7" s="38"/>
+      <c r="BY7" s="38"/>
+      <c r="BZ7" s="38"/>
     </row>
     <row r="8" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -2024,184 +2325,184 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="46">
+      <c r="I8" s="31">
         <v>1</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="31">
         <v>2</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="31">
         <v>3</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="31">
         <v>4</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="31">
         <v>5</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="31">
         <v>6</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="31">
         <v>7</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="31">
         <v>8</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="31">
         <v>9</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="31">
         <v>10</v>
       </c>
-      <c r="S8" s="46">
+      <c r="S8" s="31">
         <v>11</v>
       </c>
-      <c r="T8" s="46">
+      <c r="T8" s="31">
         <v>12</v>
       </c>
-      <c r="U8" s="46">
+      <c r="U8" s="31">
         <v>13</v>
       </c>
-      <c r="V8" s="46">
+      <c r="V8" s="31">
         <v>14</v>
       </c>
-      <c r="W8" s="46">
+      <c r="W8" s="31">
         <v>15</v>
       </c>
-      <c r="X8" s="46">
+      <c r="X8" s="31">
         <v>16</v>
       </c>
-      <c r="Y8" s="46">
+      <c r="Y8" s="31">
         <v>17</v>
       </c>
-      <c r="Z8" s="46">
+      <c r="Z8" s="31">
         <v>18</v>
       </c>
-      <c r="AA8" s="46">
+      <c r="AA8" s="31">
         <v>19</v>
       </c>
-      <c r="AB8" s="46">
+      <c r="AB8" s="31">
         <v>20</v>
       </c>
-      <c r="AC8" s="46">
+      <c r="AC8" s="31">
         <v>21</v>
       </c>
-      <c r="AD8" s="46">
+      <c r="AD8" s="31">
         <v>22</v>
       </c>
-      <c r="AE8" s="46">
+      <c r="AE8" s="31">
         <v>23</v>
       </c>
-      <c r="AF8" s="46">
+      <c r="AF8" s="31">
         <v>24</v>
       </c>
-      <c r="AG8" s="46">
+      <c r="AG8" s="31">
         <v>25</v>
       </c>
-      <c r="AH8" s="46">
+      <c r="AH8" s="31">
         <v>26</v>
       </c>
-      <c r="AI8" s="46">
+      <c r="AI8" s="31">
         <v>27</v>
       </c>
-      <c r="AJ8" s="46">
+      <c r="AJ8" s="31">
         <v>28</v>
       </c>
-      <c r="AK8" s="46">
+      <c r="AK8" s="31">
         <v>29</v>
       </c>
-      <c r="AL8" s="46">
+      <c r="AL8" s="31">
         <v>30</v>
       </c>
-      <c r="AM8" s="46">
+      <c r="AM8" s="31">
         <v>31</v>
       </c>
-      <c r="AN8" s="46">
+      <c r="AN8" s="31">
         <v>32</v>
       </c>
-      <c r="AO8" s="46">
+      <c r="AO8" s="31">
         <v>33</v>
       </c>
-      <c r="AP8" s="46">
+      <c r="AP8" s="31">
         <v>34</v>
       </c>
-      <c r="AQ8" s="46">
+      <c r="AQ8" s="31">
         <v>35</v>
       </c>
-      <c r="AR8" s="46">
+      <c r="AR8" s="31">
         <v>36</v>
       </c>
-      <c r="AS8" s="46">
+      <c r="AS8" s="31">
         <v>37</v>
       </c>
-      <c r="AT8" s="46">
+      <c r="AT8" s="31">
         <v>38</v>
       </c>
-      <c r="AU8" s="46">
+      <c r="AU8" s="31">
         <v>39</v>
       </c>
-      <c r="AV8" s="46">
+      <c r="AV8" s="31">
         <v>40</v>
       </c>
-      <c r="AW8" s="46">
+      <c r="AW8" s="31">
         <v>41</v>
       </c>
-      <c r="AX8" s="46">
+      <c r="AX8" s="31">
         <v>42</v>
       </c>
-      <c r="AY8" s="46">
+      <c r="AY8" s="31">
         <v>43</v>
       </c>
-      <c r="AZ8" s="46">
+      <c r="AZ8" s="31">
         <v>44</v>
       </c>
-      <c r="BA8" s="46">
+      <c r="BA8" s="31">
         <v>45</v>
       </c>
-      <c r="BB8" s="46">
+      <c r="BB8" s="31">
         <v>46</v>
       </c>
-      <c r="BC8" s="46">
+      <c r="BC8" s="31">
         <v>47</v>
       </c>
-      <c r="BD8" s="46">
+      <c r="BD8" s="31">
         <v>48</v>
       </c>
-      <c r="BE8" s="46">
+      <c r="BE8" s="31">
         <v>49</v>
       </c>
-      <c r="BF8" s="46">
+      <c r="BF8" s="31">
         <v>50</v>
       </c>
-      <c r="BG8" s="46">
+      <c r="BG8" s="31">
         <v>51</v>
       </c>
-      <c r="BH8" s="46">
+      <c r="BH8" s="31">
         <v>52</v>
       </c>
-      <c r="BI8" s="46">
+      <c r="BI8" s="31">
         <v>53</v>
       </c>
-      <c r="BJ8" s="46">
+      <c r="BJ8" s="31">
         <v>54</v>
       </c>
-      <c r="BK8" s="46">
+      <c r="BK8" s="31">
         <v>55</v>
       </c>
-      <c r="BL8" s="46">
+      <c r="BL8" s="31">
         <v>56</v>
       </c>
-      <c r="BM8" s="46">
+      <c r="BM8" s="31">
         <v>57</v>
       </c>
-      <c r="BN8" s="46">
+      <c r="BN8" s="31">
         <v>58</v>
       </c>
-      <c r="BO8" s="46">
+      <c r="BO8" s="31">
         <v>59</v>
       </c>
-      <c r="BP8" s="46">
+      <c r="BP8" s="31">
         <v>60</v>
       </c>
       <c r="BQ8" s="1"/>
@@ -2400,6 +2701,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:I4"/>
+    <mergeCell ref="I6:BP6"/>
     <mergeCell ref="BQ7:BZ7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:AB7"/>
@@ -2407,42 +2710,40 @@
     <mergeCell ref="AM7:AV7"/>
     <mergeCell ref="AW7:BF7"/>
     <mergeCell ref="BG7:BP7"/>
-    <mergeCell ref="B2:I4"/>
-    <mergeCell ref="I6:BP6"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP23">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>PercentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>PercentagemConcluídaAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>RealAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="24" priority="7">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:BP24">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2491,6 +2792,1295 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B2:BZ50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="71.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
+    <col min="9" max="28" width="2.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="2:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="18">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+    </row>
+    <row r="5" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+    </row>
+    <row r="6" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="37"/>
+      <c r="BI6" s="37"/>
+      <c r="BJ6" s="37"/>
+      <c r="BK6" s="37"/>
+      <c r="BL6" s="37"/>
+      <c r="BM6" s="37"/>
+      <c r="BN6" s="37"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
+    </row>
+    <row r="7" spans="2:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="40"/>
+      <c r="AS7" s="40"/>
+      <c r="AT7" s="40"/>
+      <c r="AU7" s="40"/>
+      <c r="AV7" s="41"/>
+      <c r="AW7" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="40"/>
+      <c r="BF7" s="41"/>
+      <c r="BG7" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
+      <c r="BL7" s="38"/>
+      <c r="BM7" s="38"/>
+      <c r="BN7" s="38"/>
+      <c r="BO7" s="38"/>
+      <c r="BP7" s="38"/>
+      <c r="BQ7" s="38"/>
+      <c r="BR7" s="38"/>
+      <c r="BS7" s="38"/>
+      <c r="BT7" s="38"/>
+      <c r="BU7" s="38"/>
+      <c r="BV7" s="38"/>
+      <c r="BW7" s="38"/>
+      <c r="BX7" s="38"/>
+      <c r="BY7" s="38"/>
+      <c r="BZ7" s="38"/>
+    </row>
+    <row r="8" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31">
+        <v>2</v>
+      </c>
+      <c r="K8" s="31">
+        <v>3</v>
+      </c>
+      <c r="L8" s="31">
+        <v>4</v>
+      </c>
+      <c r="M8" s="31">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31">
+        <v>6</v>
+      </c>
+      <c r="O8" s="31">
+        <v>7</v>
+      </c>
+      <c r="P8" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>9</v>
+      </c>
+      <c r="R8" s="31">
+        <v>10</v>
+      </c>
+      <c r="S8" s="31">
+        <v>11</v>
+      </c>
+      <c r="T8" s="31">
+        <v>12</v>
+      </c>
+      <c r="U8" s="31">
+        <v>13</v>
+      </c>
+      <c r="V8" s="31">
+        <v>14</v>
+      </c>
+      <c r="W8" s="31">
+        <v>15</v>
+      </c>
+      <c r="X8" s="31">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="31">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="31">
+        <v>18</v>
+      </c>
+      <c r="AA8" s="31">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="31">
+        <v>21</v>
+      </c>
+      <c r="AD8" s="31">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="31">
+        <v>23</v>
+      </c>
+      <c r="AF8" s="31">
+        <v>24</v>
+      </c>
+      <c r="AG8" s="31">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="31">
+        <v>26</v>
+      </c>
+      <c r="AI8" s="31">
+        <v>27</v>
+      </c>
+      <c r="AJ8" s="31">
+        <v>28</v>
+      </c>
+      <c r="AK8" s="31">
+        <v>29</v>
+      </c>
+      <c r="AL8" s="31">
+        <v>30</v>
+      </c>
+      <c r="AM8" s="31">
+        <v>31</v>
+      </c>
+      <c r="AN8" s="31">
+        <v>32</v>
+      </c>
+      <c r="AO8" s="31">
+        <v>33</v>
+      </c>
+      <c r="AP8" s="31">
+        <v>34</v>
+      </c>
+      <c r="AQ8" s="31">
+        <v>35</v>
+      </c>
+      <c r="AR8" s="31">
+        <v>36</v>
+      </c>
+      <c r="AS8" s="31">
+        <v>37</v>
+      </c>
+      <c r="AT8" s="31">
+        <v>38</v>
+      </c>
+      <c r="AU8" s="31">
+        <v>39</v>
+      </c>
+      <c r="AV8" s="31">
+        <v>40</v>
+      </c>
+      <c r="AW8" s="31">
+        <v>41</v>
+      </c>
+      <c r="AX8" s="31">
+        <v>42</v>
+      </c>
+      <c r="AY8" s="31">
+        <v>43</v>
+      </c>
+      <c r="AZ8" s="31">
+        <v>44</v>
+      </c>
+      <c r="BA8" s="31">
+        <v>45</v>
+      </c>
+      <c r="BB8" s="31">
+        <v>46</v>
+      </c>
+      <c r="BC8" s="31">
+        <v>47</v>
+      </c>
+      <c r="BD8" s="31">
+        <v>48</v>
+      </c>
+      <c r="BE8" s="31">
+        <v>49</v>
+      </c>
+      <c r="BF8" s="31">
+        <v>50</v>
+      </c>
+      <c r="BG8" s="31">
+        <v>51</v>
+      </c>
+      <c r="BH8" s="31">
+        <v>52</v>
+      </c>
+      <c r="BI8" s="31">
+        <v>53</v>
+      </c>
+      <c r="BJ8" s="31">
+        <v>54</v>
+      </c>
+      <c r="BK8" s="31">
+        <v>55</v>
+      </c>
+      <c r="BL8" s="31">
+        <v>56</v>
+      </c>
+      <c r="BM8" s="31">
+        <v>57</v>
+      </c>
+      <c r="BN8" s="31">
+        <v>58</v>
+      </c>
+      <c r="BO8" s="31">
+        <v>59</v>
+      </c>
+      <c r="BP8" s="31">
+        <v>60</v>
+      </c>
+      <c r="BQ8" s="1"/>
+    </row>
+    <row r="9" spans="2:78" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>10</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="15">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15">
+        <v>5</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="15">
+        <v>7</v>
+      </c>
+      <c r="D11" s="15">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="15">
+        <v>9</v>
+      </c>
+      <c r="D12" s="15">
+        <v>5</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="15">
+        <v>12</v>
+      </c>
+      <c r="D13" s="15">
+        <v>10</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="15">
+        <v>16</v>
+      </c>
+      <c r="D14" s="15">
+        <v>15</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="15">
+        <v>19</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="15">
+        <v>31</v>
+      </c>
+      <c r="D16" s="15">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:78" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15">
+        <v>41</v>
+      </c>
+      <c r="D17" s="15">
+        <v>10</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+    </row>
+    <row r="18" spans="2:78" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="15">
+        <v>46</v>
+      </c>
+      <c r="D18" s="15">
+        <v>3</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
+      <c r="BN18"/>
+      <c r="BO18"/>
+      <c r="BP18"/>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BX18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+    </row>
+    <row r="19" spans="2:78" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="15">
+        <v>49</v>
+      </c>
+      <c r="D19" s="15">
+        <v>7</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19"/>
+      <c r="BN19"/>
+      <c r="BO19"/>
+      <c r="BP19"/>
+      <c r="BQ19"/>
+      <c r="BR19"/>
+      <c r="BS19"/>
+      <c r="BT19"/>
+      <c r="BU19"/>
+      <c r="BV19"/>
+      <c r="BW19"/>
+      <c r="BX19"/>
+      <c r="BY19"/>
+      <c r="BZ19"/>
+    </row>
+    <row r="20" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
+        <v>5</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="2:78" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="15">
+        <v>11</v>
+      </c>
+      <c r="D24" s="15">
+        <v>30</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:78" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+      <c r="BK26"/>
+      <c r="BL26"/>
+      <c r="BM26"/>
+      <c r="BN26"/>
+      <c r="BO26"/>
+      <c r="BP26"/>
+      <c r="BQ26"/>
+      <c r="BR26"/>
+      <c r="BS26"/>
+      <c r="BT26"/>
+      <c r="BU26"/>
+      <c r="BV26"/>
+      <c r="BW26"/>
+      <c r="BX26"/>
+      <c r="BY26"/>
+      <c r="BZ26"/>
+    </row>
+    <row r="27" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="15">
+        <v>11</v>
+      </c>
+      <c r="D27" s="15">
+        <v>30</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+      <c r="BK27"/>
+      <c r="BL27"/>
+      <c r="BM27"/>
+      <c r="BN27"/>
+      <c r="BO27"/>
+      <c r="BP27"/>
+      <c r="BQ27"/>
+      <c r="BR27"/>
+      <c r="BS27"/>
+      <c r="BT27"/>
+      <c r="BU27"/>
+      <c r="BV27"/>
+      <c r="BW27"/>
+      <c r="BX27"/>
+      <c r="BY27"/>
+      <c r="BZ27"/>
+    </row>
+    <row r="28" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+      <c r="BL28"/>
+      <c r="BM28"/>
+      <c r="BN28"/>
+      <c r="BO28"/>
+      <c r="BP28"/>
+      <c r="BQ28"/>
+      <c r="BR28"/>
+      <c r="BS28"/>
+      <c r="BT28"/>
+      <c r="BU28"/>
+      <c r="BV28"/>
+      <c r="BW28"/>
+      <c r="BX28"/>
+      <c r="BY28"/>
+      <c r="BZ28"/>
+    </row>
+    <row r="29" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+      <c r="BK29"/>
+      <c r="BL29"/>
+      <c r="BM29"/>
+      <c r="BN29"/>
+      <c r="BO29"/>
+      <c r="BP29"/>
+      <c r="BQ29"/>
+      <c r="BR29"/>
+      <c r="BS29"/>
+      <c r="BT29"/>
+      <c r="BU29"/>
+      <c r="BV29"/>
+      <c r="BW29"/>
+      <c r="BX29"/>
+      <c r="BY29"/>
+      <c r="BZ29"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="BQ7:BZ7"/>
+    <mergeCell ref="B2:I4"/>
+    <mergeCell ref="I6:BP6"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:AB7"/>
+    <mergeCell ref="AC7:AL7"/>
+    <mergeCell ref="AM7:AV7"/>
+    <mergeCell ref="AW7:BF7"/>
+    <mergeCell ref="BG7:BP7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:BP29">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>PercentagemConcluída</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>PercentagemConcluídaAlém</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="4">
+      <formula>Real</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="5">
+      <formula>RealAlém</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="6">
+      <formula>Plano</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>I$8=período_selecionado</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:BP30">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:BP8">
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>I$8=período_selecionado</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4097" r:id="rId4" name="Controlo Giratório 5">
+              <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>18</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>18</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:BQ12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2511,26 +4101,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2573,14 +4163,14 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -2638,78 +4228,78 @@
         <v>7</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="31" t="s">
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="33" t="s">
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="31" t="s">
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="33" t="s">
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="33"/>
-      <c r="AZ7" s="33"/>
-      <c r="BA7" s="33"/>
-      <c r="BB7" s="33"/>
-      <c r="BC7" s="33"/>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="31" t="s">
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43"/>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="43"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BH7" s="31"/>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="31"/>
-      <c r="BK7" s="31"/>
-      <c r="BL7" s="31"/>
-      <c r="BM7" s="31"/>
-      <c r="BN7" s="31"/>
-      <c r="BO7" s="31"/>
-      <c r="BP7" s="31"/>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="42"/>
+      <c r="BJ7" s="42"/>
+      <c r="BK7" s="42"/>
+      <c r="BL7" s="42"/>
+      <c r="BM7" s="42"/>
+      <c r="BN7" s="42"/>
+      <c r="BO7" s="42"/>
+      <c r="BP7" s="42"/>
     </row>
     <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -3046,12 +4636,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,9 +4649,10 @@
     <col min="1" max="1" width="37.125" customWidth="1"/>
     <col min="2" max="2" width="53.25" customWidth="1"/>
     <col min="3" max="3" width="37.125" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>36</v>
       </c>
@@ -3072,32 +4663,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
       <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="39"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+      <c r="C3" s="49"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
       <c r="B4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="38"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="50"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
@@ -3106,145 +4697,179 @@
       </c>
       <c r="C5" s="27"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
       <c r="B7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="39"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="C7" s="49"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
       <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="38"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="C8" s="50"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
       <c r="B10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="39"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="C10" s="49"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
       <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="39"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="C11" s="49"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47"/>
       <c r="B12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="C12" s="50"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="40"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="C13" s="51"/>
+      <c r="F13" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
       <c r="B14" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="41"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="C14" s="52"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
       <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="41"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="C15" s="52"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
       <c r="B16" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="52"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="52"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="42"/>
+      <c r="C18" s="53"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="48"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="50"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="45" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="48"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="49"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="38"/>
+      <c r="C23" s="50"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
@@ -3264,62 +4889,64 @@
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="48" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="39"/>
+      <c r="C38" s="49"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="39"/>
+      <c r="C39" s="49"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="39"/>
+      <c r="C40" s="49"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="39"/>
+      <c r="C41" s="49"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="38"/>
+      <c r="C42" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="A19:A20"/>
+  <mergeCells count="16">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C23"/>

--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -4,41 +4,50 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="EsteLivro" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" tabRatio="693" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gantt 1semestre" sheetId="1" r:id="rId1"/>
     <sheet name="gantt 1semestre real" sheetId="4" r:id="rId2"/>
     <sheet name="gantt 2semestre" sheetId="3" r:id="rId3"/>
-    <sheet name="riscos" sheetId="2" r:id="rId4"/>
+    <sheet name="gantt 2semestre real" sheetId="5" r:id="rId4"/>
+    <sheet name="riscos" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="PercentagemConcluída" localSheetId="1">'gantt 1semestre real'!PercentagemConcluídaAlém*'gantt 1semestre real'!PeríodoDoPlano</definedName>
     <definedName name="PercentagemConcluída" localSheetId="2">'gantt 2semestre'!PercentagemConcluídaAlém*'gantt 2semestre'!PeríodoDoPlano</definedName>
+    <definedName name="PercentagemConcluída" localSheetId="3">'gantt 2semestre real'!PercentagemConcluídaAlém*'gantt 2semestre real'!PeríodoDoPlano</definedName>
     <definedName name="PercentagemConcluída">PercentagemConcluídaAlém*PeríodoDoPlano</definedName>
     <definedName name="PercentagemConcluídaAlém" localSheetId="1">('gantt 1semestre real'!A$8=MEDIAN('gantt 1semestre real'!A$8,'gantt 1semestre real'!$E1,'gantt 1semestre real'!$E1+'gantt 1semestre real'!$F1)*('gantt 1semestre real'!$E1&gt;0))*(('gantt 1semestre real'!A$8&lt;(INT('gantt 1semestre real'!$E1+'gantt 1semestre real'!$F1*'gantt 1semestre real'!$G1)))+('gantt 1semestre real'!A$8='gantt 1semestre real'!$E1))*('gantt 1semestre real'!$G1&gt;0)</definedName>
     <definedName name="PercentagemConcluídaAlém" localSheetId="2">('gantt 2semestre'!A$8=MEDIAN('gantt 2semestre'!A$8,'gantt 2semestre'!$E1,'gantt 2semestre'!$E1+'gantt 2semestre'!$F1)*('gantt 2semestre'!$E1&gt;0))*(('gantt 2semestre'!A$8&lt;(INT('gantt 2semestre'!$E1+'gantt 2semestre'!$F1*'gantt 2semestre'!$G1)))+('gantt 2semestre'!A$8='gantt 2semestre'!$E1))*('gantt 2semestre'!$G1&gt;0)</definedName>
+    <definedName name="PercentagemConcluídaAlém" localSheetId="3">('gantt 2semestre real'!A$8=MEDIAN('gantt 2semestre real'!A$8,'gantt 2semestre real'!$E1,'gantt 2semestre real'!$E1+'gantt 2semestre real'!$F1)*('gantt 2semestre real'!$E1&gt;0))*(('gantt 2semestre real'!A$8&lt;(INT('gantt 2semestre real'!$E1+'gantt 2semestre real'!$F1*'gantt 2semestre real'!$G1)))+('gantt 2semestre real'!A$8='gantt 2semestre real'!$E1))*('gantt 2semestre real'!$G1&gt;0)</definedName>
     <definedName name="PercentagemConcluídaAlém">('gantt 1semestre'!A$8=MEDIAN('gantt 1semestre'!A$8,'gantt 1semestre'!$E1,'gantt 1semestre'!$E1+'gantt 1semestre'!$F1)*('gantt 1semestre'!$E1&gt;0))*(('gantt 1semestre'!A$8&lt;(INT('gantt 1semestre'!$E1+'gantt 1semestre'!$F1*'gantt 1semestre'!$G1)))+('gantt 1semestre'!A$8='gantt 1semestre'!$E1))*('gantt 1semestre'!$G1&gt;0)</definedName>
     <definedName name="período_selecionado" localSheetId="1">'gantt 1semestre real'!$R$3</definedName>
     <definedName name="período_selecionado" localSheetId="2">'gantt 2semestre'!$R$3</definedName>
+    <definedName name="período_selecionado" localSheetId="3">'gantt 2semestre real'!$R$3</definedName>
     <definedName name="período_selecionado">'gantt 1semestre'!$R$3</definedName>
     <definedName name="PeríodoDoPlano" localSheetId="1">'gantt 1semestre real'!A$8=MEDIAN('gantt 1semestre real'!A$8,'gantt 1semestre real'!$C1,'gantt 1semestre real'!$C1+'gantt 1semestre real'!$D1-1)</definedName>
     <definedName name="PeríodoDoPlano" localSheetId="2">'gantt 2semestre'!A$8=MEDIAN('gantt 2semestre'!A$8,'gantt 2semestre'!$C1,'gantt 2semestre'!$C1+'gantt 2semestre'!$D1-1)</definedName>
+    <definedName name="PeríodoDoPlano" localSheetId="3">'gantt 2semestre real'!A$8=MEDIAN('gantt 2semestre real'!A$8,'gantt 2semestre real'!$C1,'gantt 2semestre real'!$C1+'gantt 2semestre real'!$D1-1)</definedName>
     <definedName name="PeríodoDoPlano">'gantt 1semestre'!A$8=MEDIAN('gantt 1semestre'!A$8,'gantt 1semestre'!$C1,'gantt 1semestre'!$C1+'gantt 1semestre'!$D1-1)</definedName>
     <definedName name="PeríodoReal" localSheetId="1">'gantt 1semestre real'!A$8=MEDIAN('gantt 1semestre real'!A$8,'gantt 1semestre real'!$E1,'gantt 1semestre real'!$E1+'gantt 1semestre real'!$F1-1)</definedName>
     <definedName name="PeríodoReal" localSheetId="2">'gantt 2semestre'!A$8=MEDIAN('gantt 2semestre'!A$8,'gantt 2semestre'!$E1,'gantt 2semestre'!$E1+'gantt 2semestre'!$F1-1)</definedName>
+    <definedName name="PeríodoReal" localSheetId="3">'gantt 2semestre real'!A$8=MEDIAN('gantt 2semestre real'!A$8,'gantt 2semestre real'!$E1,'gantt 2semestre real'!$E1+'gantt 2semestre real'!$F1-1)</definedName>
     <definedName name="PeríodoReal">'gantt 1semestre'!A$8=MEDIAN('gantt 1semestre'!A$8,'gantt 1semestre'!$E1,'gantt 1semestre'!$E1+'gantt 1semestre'!$F1-1)</definedName>
     <definedName name="Plano" localSheetId="1">'gantt 1semestre real'!PeríodoDoPlano*('gantt 1semestre real'!$C1&gt;0)</definedName>
     <definedName name="Plano" localSheetId="2">'gantt 2semestre'!PeríodoDoPlano*('gantt 2semestre'!$C1&gt;0)</definedName>
+    <definedName name="Plano" localSheetId="3">'gantt 2semestre real'!PeríodoDoPlano*('gantt 2semestre real'!$C1&gt;0)</definedName>
     <definedName name="Plano">PeríodoDoPlano*('gantt 1semestre'!$C1&gt;0)</definedName>
     <definedName name="Real" localSheetId="1">('gantt 1semestre real'!PeríodoReal*('gantt 1semestre real'!$E1&gt;0))*'gantt 1semestre real'!PeríodoDoPlano</definedName>
     <definedName name="Real" localSheetId="2">('gantt 2semestre'!PeríodoReal*('gantt 2semestre'!$E1&gt;0))*'gantt 2semestre'!PeríodoDoPlano</definedName>
+    <definedName name="Real" localSheetId="3">('gantt 2semestre real'!PeríodoReal*('gantt 2semestre real'!$E1&gt;0))*'gantt 2semestre real'!PeríodoDoPlano</definedName>
     <definedName name="Real">(PeríodoReal*('gantt 1semestre'!$E1&gt;0))*PeríodoDoPlano</definedName>
     <definedName name="RealAlém" localSheetId="1">'gantt 1semestre real'!PeríodoReal*('gantt 1semestre real'!$E1&gt;0)</definedName>
     <definedName name="RealAlém" localSheetId="2">'gantt 2semestre'!PeríodoReal*('gantt 2semestre'!$E1&gt;0)</definedName>
+    <definedName name="RealAlém" localSheetId="3">'gantt 2semestre real'!PeríodoReal*('gantt 2semestre real'!$E1&gt;0)</definedName>
     <definedName name="RealAlém">PeríodoReal*('gantt 1semestre'!$E1&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="123">
   <si>
     <t>Plano</t>
   </si>
@@ -455,6 +464,24 @@
   </si>
   <si>
     <t>Analyse parser tools</t>
+  </si>
+  <si>
+    <t>Final report</t>
+  </si>
+  <si>
+    <t>Implement operators and contraints</t>
+  </si>
+  <si>
+    <t>Implement evaluate methods</t>
+  </si>
+  <si>
+    <t>Second stage of implementation</t>
+  </si>
+  <si>
+    <t>Analyse more representative operators</t>
+  </si>
+  <si>
+    <t>Test SAFE tool</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1025,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1107,6 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1131,9 +1159,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1151,6 +1176,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1170,7 +1198,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Activity" xfId="2"/>
@@ -1182,7 +1212,149 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1636,10 +1808,14 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10" val="44"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10"/>
 </file>
 
@@ -1770,6 +1946,58 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="Controlo Giratório 5" descr="Period Highlight Spin Control" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2052,26 +2280,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="2:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2114,14 +2342,14 @@
       </c>
     </row>
     <row r="4" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -2151,68 +2379,68 @@
         <v>6</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="37"/>
-      <c r="AT6" s="37"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="37"/>
-      <c r="AW6" s="37"/>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="37"/>
-      <c r="AZ6" s="37"/>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="37"/>
-      <c r="BC6" s="37"/>
-      <c r="BD6" s="37"/>
-      <c r="BE6" s="37"/>
-      <c r="BF6" s="37"/>
-      <c r="BG6" s="37"/>
-      <c r="BH6" s="37"/>
-      <c r="BI6" s="37"/>
-      <c r="BJ6" s="37"/>
-      <c r="BK6" s="37"/>
-      <c r="BL6" s="37"/>
-      <c r="BM6" s="37"/>
-      <c r="BN6" s="37"/>
-      <c r="BO6" s="37"/>
-      <c r="BP6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="38"/>
+      <c r="BM6" s="38"/>
+      <c r="BN6" s="38"/>
+      <c r="BO6" s="38"/>
+      <c r="BP6" s="38"/>
     </row>
     <row r="7" spans="2:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2234,88 +2462,88 @@
         <v>7</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="39" t="s">
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="39" t="s">
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="39" t="s">
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="AN7" s="40"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="40"/>
-      <c r="AS7" s="40"/>
-      <c r="AT7" s="40"/>
-      <c r="AU7" s="40"/>
-      <c r="AV7" s="41"/>
-      <c r="AW7" s="39" t="s">
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="40"/>
-      <c r="BF7" s="41"/>
-      <c r="BG7" s="38" t="s">
+      <c r="AX7" s="41"/>
+      <c r="AY7" s="41"/>
+      <c r="AZ7" s="41"/>
+      <c r="BA7" s="41"/>
+      <c r="BB7" s="41"/>
+      <c r="BC7" s="41"/>
+      <c r="BD7" s="41"/>
+      <c r="BE7" s="41"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="BH7" s="38"/>
-      <c r="BI7" s="38"/>
-      <c r="BJ7" s="38"/>
-      <c r="BK7" s="38"/>
-      <c r="BL7" s="38"/>
-      <c r="BM7" s="38"/>
-      <c r="BN7" s="38"/>
-      <c r="BO7" s="38"/>
-      <c r="BP7" s="38"/>
-      <c r="BQ7" s="38"/>
-      <c r="BR7" s="38"/>
-      <c r="BS7" s="38"/>
-      <c r="BT7" s="38"/>
-      <c r="BU7" s="38"/>
-      <c r="BV7" s="38"/>
-      <c r="BW7" s="38"/>
-      <c r="BX7" s="38"/>
-      <c r="BY7" s="38"/>
-      <c r="BZ7" s="38"/>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="39"/>
+      <c r="BL7" s="39"/>
+      <c r="BM7" s="39"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="39"/>
+      <c r="BS7" s="39"/>
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="39"/>
+      <c r="BZ7" s="39"/>
     </row>
     <row r="8" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -2712,43 +2940,43 @@
     <mergeCell ref="BG7:BP7"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP23">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>PercentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>PercentagemConcluídaAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="36" priority="5">
       <formula>RealAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="35" priority="6">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="34" priority="7">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="11">
+    <cfRule type="expression" dxfId="33" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:BP24">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="30" priority="8">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2792,49 +3020,49 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BZ50"/>
+  <dimension ref="B2:BZ1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="8" ySplit="5" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="71.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" customWidth="1"/>
     <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
     <col min="9" max="28" width="2.75" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="2:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2845,7 +3073,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="18">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="S3" s="8"/>
       <c r="U3" s="9"/>
@@ -2877,14 +3105,14 @@
       </c>
     </row>
     <row r="4" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -2914,68 +3142,68 @@
         <v>6</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="37"/>
-      <c r="AT6" s="37"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="37"/>
-      <c r="AW6" s="37"/>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="37"/>
-      <c r="AZ6" s="37"/>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="37"/>
-      <c r="BC6" s="37"/>
-      <c r="BD6" s="37"/>
-      <c r="BE6" s="37"/>
-      <c r="BF6" s="37"/>
-      <c r="BG6" s="37"/>
-      <c r="BH6" s="37"/>
-      <c r="BI6" s="37"/>
-      <c r="BJ6" s="37"/>
-      <c r="BK6" s="37"/>
-      <c r="BL6" s="37"/>
-      <c r="BM6" s="37"/>
-      <c r="BN6" s="37"/>
-      <c r="BO6" s="37"/>
-      <c r="BP6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="38"/>
+      <c r="BM6" s="38"/>
+      <c r="BN6" s="38"/>
+      <c r="BO6" s="38"/>
+      <c r="BP6" s="38"/>
     </row>
     <row r="7" spans="2:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2997,88 +3225,88 @@
         <v>7</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="39" t="s">
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="39" t="s">
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="39" t="s">
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="AN7" s="40"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="40"/>
-      <c r="AS7" s="40"/>
-      <c r="AT7" s="40"/>
-      <c r="AU7" s="40"/>
-      <c r="AV7" s="41"/>
-      <c r="AW7" s="39" t="s">
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="40"/>
-      <c r="BF7" s="41"/>
-      <c r="BG7" s="38" t="s">
+      <c r="AX7" s="41"/>
+      <c r="AY7" s="41"/>
+      <c r="AZ7" s="41"/>
+      <c r="BA7" s="41"/>
+      <c r="BB7" s="41"/>
+      <c r="BC7" s="41"/>
+      <c r="BD7" s="41"/>
+      <c r="BE7" s="41"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="BH7" s="38"/>
-      <c r="BI7" s="38"/>
-      <c r="BJ7" s="38"/>
-      <c r="BK7" s="38"/>
-      <c r="BL7" s="38"/>
-      <c r="BM7" s="38"/>
-      <c r="BN7" s="38"/>
-      <c r="BO7" s="38"/>
-      <c r="BP7" s="38"/>
-      <c r="BQ7" s="38"/>
-      <c r="BR7" s="38"/>
-      <c r="BS7" s="38"/>
-      <c r="BT7" s="38"/>
-      <c r="BU7" s="38"/>
-      <c r="BV7" s="38"/>
-      <c r="BW7" s="38"/>
-      <c r="BX7" s="38"/>
-      <c r="BY7" s="38"/>
-      <c r="BZ7" s="38"/>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="39"/>
+      <c r="BL7" s="39"/>
+      <c r="BM7" s="39"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="39"/>
+      <c r="BS7" s="39"/>
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="39"/>
+      <c r="BZ7" s="39"/>
     </row>
     <row r="8" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -3271,8 +3499,8 @@
       <c r="BQ8" s="1"/>
     </row>
     <row r="9" spans="2:78" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
-        <v>54</v>
+      <c r="B9" s="36" t="s">
+        <v>106</v>
       </c>
       <c r="C9" s="15">
         <v>1</v>
@@ -3280,15 +3508,19 @@
       <c r="D9" s="15">
         <v>10</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>10</v>
+      </c>
       <c r="G9" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>93</v>
+      <c r="B10" s="36" t="s">
+        <v>115</v>
       </c>
       <c r="C10" s="15">
         <v>5</v>
@@ -3296,13 +3528,19 @@
       <c r="D10" s="15">
         <v>5</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="E10" s="15">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15">
+        <v>5</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
-        <v>94</v>
+      <c r="B11" s="36" t="s">
+        <v>116</v>
       </c>
       <c r="C11" s="15">
         <v>7</v>
@@ -3310,13 +3548,19 @@
       <c r="D11" s="15">
         <v>10</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="15">
+        <v>7</v>
+      </c>
+      <c r="F11" s="15">
+        <v>10</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>95</v>
+      <c r="B12" s="36" t="s">
+        <v>122</v>
       </c>
       <c r="C12" s="15">
         <v>9</v>
@@ -3324,13 +3568,19 @@
       <c r="D12" s="15">
         <v>5</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="E12" s="15">
+        <v>9</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>96</v>
+      <c r="B13" s="36" t="s">
+        <v>108</v>
       </c>
       <c r="C13" s="15">
         <v>12</v>
@@ -3338,13 +3588,19 @@
       <c r="D13" s="15">
         <v>10</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="15">
+        <v>12</v>
+      </c>
+      <c r="F13" s="15">
+        <v>10</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
-        <v>99</v>
+      <c r="B14" s="36" t="s">
+        <v>109</v>
       </c>
       <c r="C14" s="15">
         <v>16</v>
@@ -3352,13 +3608,19 @@
       <c r="D14" s="15">
         <v>15</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="E14" s="15">
+        <v>16</v>
+      </c>
+      <c r="F14" s="15">
+        <v>15</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>97</v>
+      <c r="B15" s="36" t="s">
+        <v>110</v>
       </c>
       <c r="C15" s="15">
         <v>19</v>
@@ -3366,13 +3628,19 @@
       <c r="D15" s="15">
         <v>5</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="E15" s="15">
+        <v>19</v>
+      </c>
+      <c r="F15" s="15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
-        <v>98</v>
+      <c r="B16" s="36" t="s">
+        <v>111</v>
       </c>
       <c r="C16" s="15">
         <v>31</v>
@@ -3380,13 +3648,19 @@
       <c r="D16" s="15">
         <v>10</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="E16" s="15">
+        <v>31</v>
+      </c>
+      <c r="F16" s="15">
+        <v>10</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:78" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>15</v>
+      <c r="B17" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="C17" s="15">
         <v>41</v>
@@ -3394,10 +3668,14 @@
       <c r="D17" s="15">
         <v>10</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="15">
+        <v>41</v>
+      </c>
+      <c r="F17" s="15">
+        <v>10</v>
+      </c>
       <c r="G17" s="16">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AC17"/>
       <c r="AD17"/>
@@ -3451,8 +3729,8 @@
       <c r="BZ17"/>
     </row>
     <row r="18" spans="2:78" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
-        <v>64</v>
+      <c r="B18" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="C18" s="15">
         <v>46</v>
@@ -3460,10 +3738,14 @@
       <c r="D18" s="15">
         <v>3</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="15">
+        <v>46</v>
+      </c>
+      <c r="F18" s="15">
+        <v>3</v>
+      </c>
       <c r="G18" s="16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AC18"/>
       <c r="AD18"/>
@@ -3517,8 +3799,8 @@
       <c r="BZ18"/>
     </row>
     <row r="19" spans="2:78" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
-        <v>63</v>
+      <c r="B19" s="36" t="s">
+        <v>114</v>
       </c>
       <c r="C19" s="15">
         <v>49</v>
@@ -3526,10 +3808,14 @@
       <c r="D19" s="15">
         <v>7</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="15">
+        <v>49</v>
+      </c>
+      <c r="F19" s="15">
+        <v>7</v>
+      </c>
       <c r="G19" s="16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AC19"/>
       <c r="AD19"/>
@@ -3909,7 +4195,7 @@
       <c r="B40" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="36" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3917,15 +4203,15 @@
       <c r="B41" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="57" t="s">
-        <v>115</v>
+      <c r="C41" s="36" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="36" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3933,7 +4219,7 @@
       <c r="B43" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="36" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3941,7 +4227,7 @@
       <c r="B44" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="36" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3949,7 +4235,7 @@
       <c r="B45" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="36" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3957,7 +4243,7 @@
       <c r="B46" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="36" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3965,7 +4251,7 @@
       <c r="B47" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="36" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3973,7 +4259,7 @@
       <c r="B48" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="36" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3981,7 +4267,7 @@
       <c r="B49" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="36" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3989,9 +4275,15 @@
       <c r="B50" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="36" t="s">
         <v>114</v>
       </c>
+    </row>
+    <row r="1048575" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1048575" s="16"/>
+    </row>
+    <row r="1048576" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1048576" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4006,43 +4298,43 @@
     <mergeCell ref="BG7:BP7"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP29">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>PercentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>PercentagemConcluídaAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>RealAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="24" priority="7">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:BP30">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4084,7 +4376,7 @@
   <dimension ref="B2:BQ12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B12"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4101,26 +4393,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
@@ -4163,14 +4455,14 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -4228,78 +4520,78 @@
         <v>7</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="42" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="43" t="s">
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="42" t="s">
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="43" t="s">
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="43"/>
-      <c r="BA7" s="43"/>
-      <c r="BB7" s="43"/>
-      <c r="BC7" s="43"/>
-      <c r="BD7" s="43"/>
-      <c r="BE7" s="43"/>
-      <c r="BF7" s="43"/>
-      <c r="BG7" s="42" t="s">
+      <c r="AX7" s="44"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="44"/>
+      <c r="BC7" s="44"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="44"/>
+      <c r="BF7" s="44"/>
+      <c r="BG7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="BH7" s="42"/>
-      <c r="BI7" s="42"/>
-      <c r="BJ7" s="42"/>
-      <c r="BK7" s="42"/>
-      <c r="BL7" s="42"/>
-      <c r="BM7" s="42"/>
-      <c r="BN7" s="42"/>
-      <c r="BO7" s="42"/>
-      <c r="BP7" s="42"/>
+      <c r="BH7" s="43"/>
+      <c r="BI7" s="43"/>
+      <c r="BJ7" s="43"/>
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="43"/>
+      <c r="BM7" s="43"/>
+      <c r="BN7" s="43"/>
+      <c r="BO7" s="43"/>
+      <c r="BP7" s="43"/>
     </row>
     <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -4566,43 +4858,43 @@
     <mergeCell ref="AW7:BF7"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP12">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>PercentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>PercentagemConcluídaAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>RealAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:BP13">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4637,6 +4929,1222 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:BZ1048576"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
+    <col min="9" max="28" width="2.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="2:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="18">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+    </row>
+    <row r="5" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+    </row>
+    <row r="6" spans="2:78" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="38"/>
+      <c r="BM6" s="38"/>
+      <c r="BN6" s="38"/>
+      <c r="BO6" s="38"/>
+      <c r="BP6" s="38"/>
+    </row>
+    <row r="7" spans="2:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX7" s="41"/>
+      <c r="AY7" s="41"/>
+      <c r="AZ7" s="41"/>
+      <c r="BA7" s="41"/>
+      <c r="BB7" s="41"/>
+      <c r="BC7" s="41"/>
+      <c r="BD7" s="41"/>
+      <c r="BE7" s="41"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH7" s="39"/>
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="39"/>
+      <c r="BL7" s="39"/>
+      <c r="BM7" s="39"/>
+      <c r="BN7" s="39"/>
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="39"/>
+      <c r="BS7" s="39"/>
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="39"/>
+      <c r="BV7" s="39"/>
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="39"/>
+      <c r="BZ7" s="39"/>
+    </row>
+    <row r="8" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31">
+        <v>2</v>
+      </c>
+      <c r="K8" s="31">
+        <v>3</v>
+      </c>
+      <c r="L8" s="31">
+        <v>4</v>
+      </c>
+      <c r="M8" s="31">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31">
+        <v>6</v>
+      </c>
+      <c r="O8" s="31">
+        <v>7</v>
+      </c>
+      <c r="P8" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>9</v>
+      </c>
+      <c r="R8" s="31">
+        <v>10</v>
+      </c>
+      <c r="S8" s="31">
+        <v>11</v>
+      </c>
+      <c r="T8" s="31">
+        <v>12</v>
+      </c>
+      <c r="U8" s="31">
+        <v>13</v>
+      </c>
+      <c r="V8" s="31">
+        <v>14</v>
+      </c>
+      <c r="W8" s="31">
+        <v>15</v>
+      </c>
+      <c r="X8" s="31">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="31">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="31">
+        <v>18</v>
+      </c>
+      <c r="AA8" s="31">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="31">
+        <v>21</v>
+      </c>
+      <c r="AD8" s="31">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="31">
+        <v>23</v>
+      </c>
+      <c r="AF8" s="31">
+        <v>24</v>
+      </c>
+      <c r="AG8" s="31">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="31">
+        <v>26</v>
+      </c>
+      <c r="AI8" s="31">
+        <v>27</v>
+      </c>
+      <c r="AJ8" s="31">
+        <v>28</v>
+      </c>
+      <c r="AK8" s="31">
+        <v>29</v>
+      </c>
+      <c r="AL8" s="31">
+        <v>30</v>
+      </c>
+      <c r="AM8" s="31">
+        <v>31</v>
+      </c>
+      <c r="AN8" s="31">
+        <v>32</v>
+      </c>
+      <c r="AO8" s="31">
+        <v>33</v>
+      </c>
+      <c r="AP8" s="31">
+        <v>34</v>
+      </c>
+      <c r="AQ8" s="31">
+        <v>35</v>
+      </c>
+      <c r="AR8" s="31">
+        <v>36</v>
+      </c>
+      <c r="AS8" s="31">
+        <v>37</v>
+      </c>
+      <c r="AT8" s="31">
+        <v>38</v>
+      </c>
+      <c r="AU8" s="31">
+        <v>39</v>
+      </c>
+      <c r="AV8" s="31">
+        <v>40</v>
+      </c>
+      <c r="AW8" s="31">
+        <v>41</v>
+      </c>
+      <c r="AX8" s="31">
+        <v>42</v>
+      </c>
+      <c r="AY8" s="31">
+        <v>43</v>
+      </c>
+      <c r="AZ8" s="31">
+        <v>44</v>
+      </c>
+      <c r="BA8" s="31">
+        <v>45</v>
+      </c>
+      <c r="BB8" s="31">
+        <v>46</v>
+      </c>
+      <c r="BC8" s="31">
+        <v>47</v>
+      </c>
+      <c r="BD8" s="31">
+        <v>48</v>
+      </c>
+      <c r="BE8" s="31">
+        <v>49</v>
+      </c>
+      <c r="BF8" s="31">
+        <v>50</v>
+      </c>
+      <c r="BG8" s="31">
+        <v>51</v>
+      </c>
+      <c r="BH8" s="31">
+        <v>52</v>
+      </c>
+      <c r="BI8" s="31">
+        <v>53</v>
+      </c>
+      <c r="BJ8" s="31">
+        <v>54</v>
+      </c>
+      <c r="BK8" s="31">
+        <v>55</v>
+      </c>
+      <c r="BL8" s="31">
+        <v>56</v>
+      </c>
+      <c r="BM8" s="31">
+        <v>57</v>
+      </c>
+      <c r="BN8" s="31">
+        <v>58</v>
+      </c>
+      <c r="BO8" s="31">
+        <v>59</v>
+      </c>
+      <c r="BP8" s="31">
+        <v>60</v>
+      </c>
+      <c r="BQ8" s="1"/>
+    </row>
+    <row r="9" spans="2:78" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>20</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>20</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15">
+        <v>21</v>
+      </c>
+      <c r="D11" s="15">
+        <v>20</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="15">
+        <v>41</v>
+      </c>
+      <c r="D12" s="15">
+        <v>10</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="36"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:78" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="36"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+    </row>
+    <row r="18" spans="2:78" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="36"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
+      <c r="BN18"/>
+      <c r="BO18"/>
+      <c r="BP18"/>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BX18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+    </row>
+    <row r="19" spans="2:78" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="36"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19"/>
+      <c r="BN19"/>
+      <c r="BO19"/>
+      <c r="BP19"/>
+      <c r="BQ19"/>
+      <c r="BR19"/>
+      <c r="BS19"/>
+      <c r="BT19"/>
+      <c r="BU19"/>
+      <c r="BV19"/>
+      <c r="BW19"/>
+      <c r="BX19"/>
+      <c r="BY19"/>
+      <c r="BZ19"/>
+    </row>
+    <row r="20" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
+        <v>5</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="2:78" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="15">
+        <v>11</v>
+      </c>
+      <c r="D24" s="15">
+        <v>30</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:78" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+      <c r="BK26"/>
+      <c r="BL26"/>
+      <c r="BM26"/>
+      <c r="BN26"/>
+      <c r="BO26"/>
+      <c r="BP26"/>
+      <c r="BQ26"/>
+      <c r="BR26"/>
+      <c r="BS26"/>
+      <c r="BT26"/>
+      <c r="BU26"/>
+      <c r="BV26"/>
+      <c r="BW26"/>
+      <c r="BX26"/>
+      <c r="BY26"/>
+      <c r="BZ26"/>
+    </row>
+    <row r="27" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="15">
+        <v>11</v>
+      </c>
+      <c r="D27" s="15">
+        <v>30</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+      <c r="BK27"/>
+      <c r="BL27"/>
+      <c r="BM27"/>
+      <c r="BN27"/>
+      <c r="BO27"/>
+      <c r="BP27"/>
+      <c r="BQ27"/>
+      <c r="BR27"/>
+      <c r="BS27"/>
+      <c r="BT27"/>
+      <c r="BU27"/>
+      <c r="BV27"/>
+      <c r="BW27"/>
+      <c r="BX27"/>
+      <c r="BY27"/>
+      <c r="BZ27"/>
+    </row>
+    <row r="28" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+      <c r="BL28"/>
+      <c r="BM28"/>
+      <c r="BN28"/>
+      <c r="BO28"/>
+      <c r="BP28"/>
+      <c r="BQ28"/>
+      <c r="BR28"/>
+      <c r="BS28"/>
+      <c r="BT28"/>
+      <c r="BU28"/>
+      <c r="BV28"/>
+      <c r="BW28"/>
+      <c r="BX28"/>
+      <c r="BY28"/>
+      <c r="BZ28"/>
+    </row>
+    <row r="29" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+      <c r="BK29"/>
+      <c r="BL29"/>
+      <c r="BM29"/>
+      <c r="BN29"/>
+      <c r="BO29"/>
+      <c r="BP29"/>
+      <c r="BQ29"/>
+      <c r="BR29"/>
+      <c r="BS29"/>
+      <c r="BT29"/>
+      <c r="BU29"/>
+      <c r="BV29"/>
+      <c r="BW29"/>
+      <c r="BX29"/>
+      <c r="BY29"/>
+      <c r="BZ29"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="20"/>
+      <c r="C40" s="36"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="20"/>
+      <c r="C41" s="36"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="36"/>
+      <c r="D44" s="58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="20"/>
+      <c r="C46" s="36"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="20"/>
+      <c r="C47" s="36"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="20"/>
+      <c r="C48" s="36"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="33"/>
+      <c r="C49" s="36"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="33"/>
+      <c r="C50" s="36"/>
+    </row>
+    <row r="1048575" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1048575" s="16"/>
+    </row>
+    <row r="1048576" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1048576" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="BQ7:BZ7"/>
+    <mergeCell ref="B2:I4"/>
+    <mergeCell ref="I6:BP6"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:AB7"/>
+    <mergeCell ref="AC7:AL7"/>
+    <mergeCell ref="AM7:AV7"/>
+    <mergeCell ref="AW7:BF7"/>
+    <mergeCell ref="BG7:BP7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:BP29">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>PercentagemConcluída</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>PercentagemConcluídaAlém</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>Real</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>RealAlém</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>Plano</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>I$8=período_selecionado</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:BP30">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:BP8">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>I$8=período_selecionado</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6145" r:id="rId4" name="Controlo Giratório 5">
+              <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>18</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>18</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
@@ -4748,10 +6256,10 @@
       <c r="C11" s="49"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="44"/>
+      <c r="I11" s="51"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
@@ -4769,14 +6277,14 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="F13" s="44" t="s">
+      <c r="C13" s="52"/>
+      <c r="F13" s="51" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="34" t="s">
@@ -4788,12 +6296,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="F14" s="44"/>
+      <c r="C14" s="53"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="34" t="s">
         <v>101</v>
       </c>
@@ -4805,32 +6313,32 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="53"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="53"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="53"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="54"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
@@ -4936,12 +6444,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A37:A42"/>
@@ -4952,6 +6454,12 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="EsteLivro" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" tabRatio="693" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" tabRatio="693" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="gantt 1semestre" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="125">
   <si>
     <t>Plano</t>
   </si>
@@ -460,21 +460,12 @@
     <t>Prepare presentation</t>
   </si>
   <si>
-    <t>Analyse operators more representative</t>
-  </si>
-  <si>
     <t>Analyse parser tools</t>
   </si>
   <si>
     <t>Final report</t>
   </si>
   <si>
-    <t>Implement operators and contraints</t>
-  </si>
-  <si>
-    <t>Implement evaluate methods</t>
-  </si>
-  <si>
     <t>Second stage of implementation</t>
   </si>
   <si>
@@ -482,6 +473,21 @@
   </si>
   <si>
     <t>Test SAFE tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operators more representative - Analyse </t>
+  </si>
+  <si>
+    <t>Parser tools - Analyse</t>
+  </si>
+  <si>
+    <t>Operators and contraints - Implementation</t>
+  </si>
+  <si>
+    <t>Evaluate methods - Implementation</t>
+  </si>
+  <si>
+    <t>Second Semester</t>
   </si>
 </sst>
 </file>
@@ -1135,6 +1141,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1159,6 +1168,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1177,9 +1189,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1197,9 +1206,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2280,26 +2286,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="2:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2342,14 +2348,14 @@
       </c>
     </row>
     <row r="4" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -2379,68 +2385,68 @@
         <v>6</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="38"/>
-      <c r="BI6" s="38"/>
-      <c r="BJ6" s="38"/>
-      <c r="BK6" s="38"/>
-      <c r="BL6" s="38"/>
-      <c r="BM6" s="38"/>
-      <c r="BN6" s="38"/>
-      <c r="BO6" s="38"/>
-      <c r="BP6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="39"/>
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="39"/>
+      <c r="BF6" s="39"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="39"/>
+      <c r="BI6" s="39"/>
+      <c r="BJ6" s="39"/>
+      <c r="BK6" s="39"/>
+      <c r="BL6" s="39"/>
+      <c r="BM6" s="39"/>
+      <c r="BN6" s="39"/>
+      <c r="BO6" s="39"/>
+      <c r="BP6" s="39"/>
     </row>
     <row r="7" spans="2:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2462,88 +2468,88 @@
         <v>7</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="40" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="40" t="s">
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="40" t="s">
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="40" t="s">
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="39" t="s">
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="39"/>
-      <c r="BL7" s="39"/>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="39"/>
-      <c r="BS7" s="39"/>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="39"/>
-      <c r="BV7" s="39"/>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
-      <c r="BY7" s="39"/>
-      <c r="BZ7" s="39"/>
+      <c r="BH7" s="40"/>
+      <c r="BI7" s="40"/>
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="40"/>
+      <c r="BM7" s="40"/>
+      <c r="BN7" s="40"/>
+      <c r="BO7" s="40"/>
+      <c r="BP7" s="40"/>
+      <c r="BQ7" s="40"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="40"/>
+      <c r="BT7" s="40"/>
+      <c r="BU7" s="40"/>
+      <c r="BV7" s="40"/>
+      <c r="BW7" s="40"/>
+      <c r="BX7" s="40"/>
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="40"/>
     </row>
     <row r="8" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -3022,11 +3028,11 @@
   </sheetPr>
   <dimension ref="B2:BZ1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3043,26 +3049,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="2:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
@@ -3105,14 +3111,14 @@
       </c>
     </row>
     <row r="4" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -3142,68 +3148,68 @@
         <v>6</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="38"/>
-      <c r="BI6" s="38"/>
-      <c r="BJ6" s="38"/>
-      <c r="BK6" s="38"/>
-      <c r="BL6" s="38"/>
-      <c r="BM6" s="38"/>
-      <c r="BN6" s="38"/>
-      <c r="BO6" s="38"/>
-      <c r="BP6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="39"/>
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="39"/>
+      <c r="BF6" s="39"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="39"/>
+      <c r="BI6" s="39"/>
+      <c r="BJ6" s="39"/>
+      <c r="BK6" s="39"/>
+      <c r="BL6" s="39"/>
+      <c r="BM6" s="39"/>
+      <c r="BN6" s="39"/>
+      <c r="BO6" s="39"/>
+      <c r="BP6" s="39"/>
     </row>
     <row r="7" spans="2:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -3225,88 +3231,88 @@
         <v>7</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="40" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="40" t="s">
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="40" t="s">
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="40" t="s">
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="39" t="s">
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="39"/>
-      <c r="BL7" s="39"/>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="39"/>
-      <c r="BS7" s="39"/>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="39"/>
-      <c r="BV7" s="39"/>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
-      <c r="BY7" s="39"/>
-      <c r="BZ7" s="39"/>
+      <c r="BH7" s="40"/>
+      <c r="BI7" s="40"/>
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="40"/>
+      <c r="BM7" s="40"/>
+      <c r="BN7" s="40"/>
+      <c r="BO7" s="40"/>
+      <c r="BP7" s="40"/>
+      <c r="BQ7" s="40"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="40"/>
+      <c r="BT7" s="40"/>
+      <c r="BU7" s="40"/>
+      <c r="BV7" s="40"/>
+      <c r="BW7" s="40"/>
+      <c r="BX7" s="40"/>
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="40"/>
     </row>
     <row r="8" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -3520,7 +3526,7 @@
     </row>
     <row r="10" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C10" s="15">
         <v>5</v>
@@ -3540,7 +3546,7 @@
     </row>
     <row r="11" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C11" s="15">
         <v>7</v>
@@ -3560,7 +3566,7 @@
     </row>
     <row r="12" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C12" s="15">
         <v>9</v>
@@ -4204,7 +4210,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -4212,7 +4218,7 @@
         <v>94</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -4393,26 +4399,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
@@ -4455,14 +4461,14 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -4520,78 +4526,78 @@
         <v>7</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="43" t="s">
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="44" t="s">
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="43" t="s">
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="44" t="s">
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44"/>
-      <c r="BC7" s="44"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="43" t="s">
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="45"/>
+      <c r="BC7" s="45"/>
+      <c r="BD7" s="45"/>
+      <c r="BE7" s="45"/>
+      <c r="BF7" s="45"/>
+      <c r="BG7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BH7" s="43"/>
-      <c r="BI7" s="43"/>
-      <c r="BJ7" s="43"/>
-      <c r="BK7" s="43"/>
-      <c r="BL7" s="43"/>
-      <c r="BM7" s="43"/>
-      <c r="BN7" s="43"/>
-      <c r="BO7" s="43"/>
-      <c r="BP7" s="43"/>
+      <c r="BH7" s="44"/>
+      <c r="BI7" s="44"/>
+      <c r="BJ7" s="44"/>
+      <c r="BK7" s="44"/>
+      <c r="BL7" s="44"/>
+      <c r="BM7" s="44"/>
+      <c r="BN7" s="44"/>
+      <c r="BO7" s="44"/>
+      <c r="BP7" s="44"/>
     </row>
     <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -4935,11 +4941,11 @@
   </sheetPr>
   <dimension ref="B2:BZ1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4956,26 +4962,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="2:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="K3" s="8" t="s">
         <v>12</v>
       </c>
@@ -5018,14 +5024,14 @@
       </c>
     </row>
     <row r="4" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -5055,68 +5061,68 @@
         <v>6</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="38"/>
-      <c r="BI6" s="38"/>
-      <c r="BJ6" s="38"/>
-      <c r="BK6" s="38"/>
-      <c r="BL6" s="38"/>
-      <c r="BM6" s="38"/>
-      <c r="BN6" s="38"/>
-      <c r="BO6" s="38"/>
-      <c r="BP6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="39"/>
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="39"/>
+      <c r="BF6" s="39"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="39"/>
+      <c r="BI6" s="39"/>
+      <c r="BJ6" s="39"/>
+      <c r="BK6" s="39"/>
+      <c r="BL6" s="39"/>
+      <c r="BM6" s="39"/>
+      <c r="BN6" s="39"/>
+      <c r="BO6" s="39"/>
+      <c r="BP6" s="39"/>
     </row>
     <row r="7" spans="2:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -5138,88 +5144,88 @@
         <v>7</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="40" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="40" t="s">
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="40" t="s">
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="40" t="s">
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="42"/>
-      <c r="BG7" s="39" t="s">
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="BH7" s="39"/>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="39"/>
-      <c r="BL7" s="39"/>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="39"/>
-      <c r="BS7" s="39"/>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="39"/>
-      <c r="BV7" s="39"/>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
-      <c r="BY7" s="39"/>
-      <c r="BZ7" s="39"/>
+      <c r="BH7" s="40"/>
+      <c r="BI7" s="40"/>
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="40"/>
+      <c r="BM7" s="40"/>
+      <c r="BN7" s="40"/>
+      <c r="BO7" s="40"/>
+      <c r="BP7" s="40"/>
+      <c r="BQ7" s="40"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="40"/>
+      <c r="BT7" s="40"/>
+      <c r="BU7" s="40"/>
+      <c r="BV7" s="40"/>
+      <c r="BW7" s="40"/>
+      <c r="BX7" s="40"/>
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="40"/>
     </row>
     <row r="8" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -5411,9 +5417,9 @@
       </c>
       <c r="BQ8" s="1"/>
     </row>
-    <row r="9" spans="2:78" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>16</v>
+    <row r="9" spans="2:78" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="C9" s="15">
         <v>1</v>
@@ -5425,9 +5431,9 @@
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>17</v>
+    <row r="10" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>123</v>
       </c>
       <c r="C10" s="15">
         <v>1</v>
@@ -5439,9 +5445,9 @@
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>18</v>
+    <row r="11" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="37" t="s">
+        <v>117</v>
       </c>
       <c r="C11" s="15">
         <v>21</v>
@@ -5453,9 +5459,9 @@
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>19</v>
+    <row r="12" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="37" t="s">
+        <v>116</v>
       </c>
       <c r="C12" s="15">
         <v>41</v>
@@ -6004,8 +6010,8 @@
         <v>16</v>
       </c>
       <c r="C42" s="36"/>
-      <c r="D42" s="58" t="s">
-        <v>118</v>
+      <c r="D42" s="37" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -6013,8 +6019,8 @@
         <v>17</v>
       </c>
       <c r="C43" s="36"/>
-      <c r="D43" s="58" t="s">
-        <v>119</v>
+      <c r="D43" s="37" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -6022,8 +6028,8 @@
         <v>18</v>
       </c>
       <c r="C44" s="36"/>
-      <c r="D44" s="58" t="s">
-        <v>120</v>
+      <c r="D44" s="37" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -6031,8 +6037,8 @@
         <v>19</v>
       </c>
       <c r="C45" s="36"/>
-      <c r="D45" s="58" t="s">
-        <v>117</v>
+      <c r="D45" s="37" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -6172,29 +6178,29 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="50" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -6206,67 +6212,67 @@
       <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="50" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="51"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="50" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="51"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="51"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="51"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="52"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="34" t="s">
@@ -6277,14 +6283,14 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="56" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="F13" s="51" t="s">
+      <c r="C13" s="53"/>
+      <c r="F13" s="46" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="34" t="s">
@@ -6296,12 +6302,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="F14" s="51"/>
+      <c r="C14" s="54"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="34" t="s">
         <v>101</v>
       </c>
@@ -6313,71 +6319,71 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="54"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="54"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="50"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="52"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="51"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="52"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
@@ -6397,53 +6403,59 @@
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="50" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="51"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="51"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="51"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="51"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="50"/>
+      <c r="C42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A37:A42"/>
@@ -6454,12 +6466,6 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="EsteLivro" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" tabRatio="693" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" tabRatio="693" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gantt 1semestre" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="131">
   <si>
     <t>Plano</t>
   </si>
@@ -487,7 +487,25 @@
     <t>Evaluate methods - Implementation</t>
   </si>
   <si>
-    <t>Second Semester</t>
+    <t>1º Semester</t>
+  </si>
+  <si>
+    <t>2º Semester</t>
+  </si>
+  <si>
+    <t>Setembro</t>
+  </si>
+  <si>
+    <t>Outubro</t>
+  </si>
+  <si>
+    <t>Novembro</t>
+  </si>
+  <si>
+    <t>Dezembro</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
   </si>
 </sst>
 </file>
@@ -1168,26 +1186,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3028,11 +3046,11 @@
   </sheetPr>
   <dimension ref="B2:BZ1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomRight" activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3050,7 +3068,7 @@
   <sheetData>
     <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -4939,13 +4957,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BZ1048576"/>
+  <dimension ref="B2:BZ1048569"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:I4"/>
+      <selection pane="bottomRight" activeCell="BM27" sqref="BM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4963,7 +4981,7 @@
   <sheetData>
     <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -5145,7 +5163,7 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="41" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
@@ -5157,7 +5175,7 @@
       <c r="Q7" s="42"/>
       <c r="R7" s="43"/>
       <c r="S7" s="41" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="T7" s="42"/>
       <c r="U7" s="42"/>
@@ -5169,7 +5187,7 @@
       <c r="AA7" s="42"/>
       <c r="AB7" s="43"/>
       <c r="AC7" s="41" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="AD7" s="42"/>
       <c r="AE7" s="42"/>
@@ -5181,7 +5199,7 @@
       <c r="AK7" s="42"/>
       <c r="AL7" s="43"/>
       <c r="AM7" s="41" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AN7" s="42"/>
       <c r="AO7" s="42"/>
@@ -5193,7 +5211,7 @@
       <c r="AU7" s="42"/>
       <c r="AV7" s="43"/>
       <c r="AW7" s="41" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="AX7" s="42"/>
       <c r="AY7" s="42"/>
@@ -5205,7 +5223,7 @@
       <c r="BE7" s="42"/>
       <c r="BF7" s="43"/>
       <c r="BG7" s="40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="BH7" s="40"/>
       <c r="BI7" s="40"/>
@@ -5473,156 +5491,82 @@
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+    <row r="13" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>5</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
+        <v>56</v>
+      </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
+    <row r="15" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
+    <row r="16" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
+        <v>58</v>
+      </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="2:78" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+    <row r="17" spans="2:78" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15">
+        <v>30</v>
+      </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17"/>
-      <c r="AK17"/>
-      <c r="AL17"/>
-      <c r="AM17"/>
-      <c r="AN17"/>
-      <c r="AO17"/>
-      <c r="AP17"/>
-      <c r="AQ17"/>
-      <c r="AR17"/>
-      <c r="AS17"/>
-      <c r="AT17"/>
-      <c r="AU17"/>
-      <c r="AV17"/>
-      <c r="AW17"/>
-      <c r="AX17"/>
-      <c r="AY17"/>
-      <c r="AZ17"/>
-      <c r="BA17"/>
-      <c r="BB17"/>
-      <c r="BC17"/>
-      <c r="BD17"/>
-      <c r="BE17"/>
-      <c r="BF17"/>
-      <c r="BG17"/>
-      <c r="BH17"/>
-      <c r="BI17"/>
-      <c r="BJ17"/>
-      <c r="BK17"/>
-      <c r="BL17"/>
-      <c r="BM17"/>
-      <c r="BN17"/>
-      <c r="BO17"/>
-      <c r="BP17"/>
-      <c r="BQ17"/>
-      <c r="BR17"/>
-      <c r="BS17"/>
-      <c r="BT17"/>
-      <c r="BU17"/>
-      <c r="BV17"/>
-      <c r="BW17"/>
-      <c r="BX17"/>
-      <c r="BY17"/>
-      <c r="BZ17"/>
-    </row>
-    <row r="18" spans="2:78" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:78" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="32" t="s">
+        <v>59</v>
+      </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18"/>
-      <c r="AK18"/>
-      <c r="AL18"/>
-      <c r="AM18"/>
-      <c r="AN18"/>
-      <c r="AO18"/>
-      <c r="AP18"/>
-      <c r="AQ18"/>
-      <c r="AR18"/>
-      <c r="AS18"/>
-      <c r="AT18"/>
-      <c r="AU18"/>
-      <c r="AV18"/>
-      <c r="AW18"/>
-      <c r="AX18"/>
-      <c r="AY18"/>
-      <c r="AZ18"/>
-      <c r="BA18"/>
-      <c r="BB18"/>
-      <c r="BC18"/>
-      <c r="BD18"/>
-      <c r="BE18"/>
-      <c r="BF18"/>
-      <c r="BG18"/>
-      <c r="BH18"/>
-      <c r="BI18"/>
-      <c r="BJ18"/>
-      <c r="BK18"/>
-      <c r="BL18"/>
-      <c r="BM18"/>
-      <c r="BN18"/>
-      <c r="BO18"/>
-      <c r="BP18"/>
-      <c r="BQ18"/>
-      <c r="BR18"/>
-      <c r="BS18"/>
-      <c r="BT18"/>
-      <c r="BU18"/>
-      <c r="BV18"/>
-      <c r="BW18"/>
-      <c r="BX18"/>
-      <c r="BY18"/>
-      <c r="BZ18"/>
-    </row>
-    <row r="19" spans="2:78" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
+    </row>
+    <row r="19" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -5679,323 +5623,239 @@
       <c r="BY19"/>
       <c r="BZ19"/>
     </row>
-    <row r="20" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C20" s="15">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D20" s="15">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20"/>
+      <c r="BN20"/>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BX20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
+    </row>
+    <row r="21" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+      <c r="BK21"/>
+      <c r="BL21"/>
+      <c r="BM21"/>
+      <c r="BN21"/>
+      <c r="BO21"/>
+      <c r="BP21"/>
+      <c r="BQ21"/>
+      <c r="BR21"/>
+      <c r="BS21"/>
+      <c r="BT21"/>
+      <c r="BU21"/>
+      <c r="BV21"/>
+      <c r="BW21"/>
+      <c r="BX21"/>
+      <c r="BY21"/>
+      <c r="BZ21"/>
+    </row>
+    <row r="22" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="2:78" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="15">
-        <v>11</v>
-      </c>
-      <c r="D24" s="15">
-        <v>30</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:78" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26"/>
-      <c r="AK26"/>
-      <c r="AL26"/>
-      <c r="AM26"/>
-      <c r="AN26"/>
-      <c r="AO26"/>
-      <c r="AP26"/>
-      <c r="AQ26"/>
-      <c r="AR26"/>
-      <c r="AS26"/>
-      <c r="AT26"/>
-      <c r="AU26"/>
-      <c r="AV26"/>
-      <c r="AW26"/>
-      <c r="AX26"/>
-      <c r="AY26"/>
-      <c r="AZ26"/>
-      <c r="BA26"/>
-      <c r="BB26"/>
-      <c r="BC26"/>
-      <c r="BD26"/>
-      <c r="BE26"/>
-      <c r="BF26"/>
-      <c r="BG26"/>
-      <c r="BH26"/>
-      <c r="BI26"/>
-      <c r="BJ26"/>
-      <c r="BK26"/>
-      <c r="BL26"/>
-      <c r="BM26"/>
-      <c r="BN26"/>
-      <c r="BO26"/>
-      <c r="BP26"/>
-      <c r="BQ26"/>
-      <c r="BR26"/>
-      <c r="BS26"/>
-      <c r="BT26"/>
-      <c r="BU26"/>
-      <c r="BV26"/>
-      <c r="BW26"/>
-      <c r="BX26"/>
-      <c r="BY26"/>
-      <c r="BZ26"/>
-    </row>
-    <row r="27" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="15">
-        <v>11</v>
-      </c>
-      <c r="D27" s="15">
-        <v>30</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27"/>
-      <c r="AK27"/>
-      <c r="AL27"/>
-      <c r="AM27"/>
-      <c r="AN27"/>
-      <c r="AO27"/>
-      <c r="AP27"/>
-      <c r="AQ27"/>
-      <c r="AR27"/>
-      <c r="AS27"/>
-      <c r="AT27"/>
-      <c r="AU27"/>
-      <c r="AV27"/>
-      <c r="AW27"/>
-      <c r="AX27"/>
-      <c r="AY27"/>
-      <c r="AZ27"/>
-      <c r="BA27"/>
-      <c r="BB27"/>
-      <c r="BC27"/>
-      <c r="BD27"/>
-      <c r="BE27"/>
-      <c r="BF27"/>
-      <c r="BG27"/>
-      <c r="BH27"/>
-      <c r="BI27"/>
-      <c r="BJ27"/>
-      <c r="BK27"/>
-      <c r="BL27"/>
-      <c r="BM27"/>
-      <c r="BN27"/>
-      <c r="BO27"/>
-      <c r="BP27"/>
-      <c r="BQ27"/>
-      <c r="BR27"/>
-      <c r="BS27"/>
-      <c r="BT27"/>
-      <c r="BU27"/>
-      <c r="BV27"/>
-      <c r="BW27"/>
-      <c r="BX27"/>
-      <c r="BY27"/>
-      <c r="BZ27"/>
-    </row>
-    <row r="28" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
-      <c r="AF28"/>
-      <c r="AG28"/>
-      <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28"/>
-      <c r="AK28"/>
-      <c r="AL28"/>
-      <c r="AM28"/>
-      <c r="AN28"/>
-      <c r="AO28"/>
-      <c r="AP28"/>
-      <c r="AQ28"/>
-      <c r="AR28"/>
-      <c r="AS28"/>
-      <c r="AT28"/>
-      <c r="AU28"/>
-      <c r="AV28"/>
-      <c r="AW28"/>
-      <c r="AX28"/>
-      <c r="AY28"/>
-      <c r="AZ28"/>
-      <c r="BA28"/>
-      <c r="BB28"/>
-      <c r="BC28"/>
-      <c r="BD28"/>
-      <c r="BE28"/>
-      <c r="BF28"/>
-      <c r="BG28"/>
-      <c r="BH28"/>
-      <c r="BI28"/>
-      <c r="BJ28"/>
-      <c r="BK28"/>
-      <c r="BL28"/>
-      <c r="BM28"/>
-      <c r="BN28"/>
-      <c r="BO28"/>
-      <c r="BP28"/>
-      <c r="BQ28"/>
-      <c r="BR28"/>
-      <c r="BS28"/>
-      <c r="BT28"/>
-      <c r="BU28"/>
-      <c r="BV28"/>
-      <c r="BW28"/>
-      <c r="BX28"/>
-      <c r="BY28"/>
-      <c r="BZ28"/>
-    </row>
-    <row r="29" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
-      <c r="AG29"/>
-      <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29"/>
-      <c r="AK29"/>
-      <c r="AL29"/>
-      <c r="AM29"/>
-      <c r="AN29"/>
-      <c r="AO29"/>
-      <c r="AP29"/>
-      <c r="AQ29"/>
-      <c r="AR29"/>
-      <c r="AS29"/>
-      <c r="AT29"/>
-      <c r="AU29"/>
-      <c r="AV29"/>
-      <c r="AW29"/>
-      <c r="AX29"/>
-      <c r="AY29"/>
-      <c r="AZ29"/>
-      <c r="BA29"/>
-      <c r="BB29"/>
-      <c r="BC29"/>
-      <c r="BD29"/>
-      <c r="BE29"/>
-      <c r="BF29"/>
-      <c r="BG29"/>
-      <c r="BH29"/>
-      <c r="BI29"/>
-      <c r="BJ29"/>
-      <c r="BK29"/>
-      <c r="BL29"/>
-      <c r="BM29"/>
-      <c r="BN29"/>
-      <c r="BO29"/>
-      <c r="BP29"/>
-      <c r="BQ29"/>
-      <c r="BR29"/>
-      <c r="BS29"/>
-      <c r="BT29"/>
-      <c r="BU29"/>
-      <c r="BV29"/>
-      <c r="BW29"/>
-      <c r="BX29"/>
-      <c r="BY29"/>
-      <c r="BZ29"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+      <c r="BK22"/>
+      <c r="BL22"/>
+      <c r="BM22"/>
+      <c r="BN22"/>
+      <c r="BO22"/>
+      <c r="BP22"/>
+      <c r="BQ22"/>
+      <c r="BR22"/>
+      <c r="BS22"/>
+      <c r="BT22"/>
+      <c r="BU22"/>
+      <c r="BV22"/>
+      <c r="BW22"/>
+      <c r="BX22"/>
+      <c r="BY22"/>
+      <c r="BZ22"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="20"/>
+      <c r="C33" s="36"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="36"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="20"/>
+      <c r="C39" s="36"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="20"/>
@@ -6005,67 +5865,19 @@
       <c r="B41" s="20"/>
       <c r="C41" s="36"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
-        <v>16</v>
-      </c>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
       <c r="C42" s="36"/>
-      <c r="D42" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="14" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
       <c r="C43" s="36"/>
-      <c r="D43" s="37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="20"/>
-      <c r="C46" s="36"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="20"/>
-      <c r="C47" s="36"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="20"/>
-      <c r="C48" s="36"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
-      <c r="C49" s="36"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
-      <c r="C50" s="36"/>
-    </row>
-    <row r="1048575" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1048575" s="16"/>
-    </row>
-    <row r="1048576" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1048576" s="16"/>
+    </row>
+    <row r="1048568" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1048568" s="16"/>
+    </row>
+    <row r="1048569" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1048569" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6079,7 +5891,7 @@
     <mergeCell ref="AW7:BF7"/>
     <mergeCell ref="BG7:BP7"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:BP29">
+  <conditionalFormatting sqref="I9:BP22">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentagemConcluída</formula>
     </cfRule>
@@ -6105,7 +5917,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:BP30">
+  <conditionalFormatting sqref="B23:BP23">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
@@ -6178,29 +5990,29 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -6212,67 +6024,67 @@
       <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="50"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="51"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="50"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="50"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="46"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="51"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="34" t="s">
@@ -6290,7 +6102,7 @@
         <v>74</v>
       </c>
       <c r="C13" s="53"/>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="52" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="34" t="s">
@@ -6307,7 +6119,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="54"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="34" t="s">
         <v>101</v>
       </c>
@@ -6347,43 +6159,43 @@
       <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="49"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="46" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="49"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="50"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="51"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
@@ -6403,59 +6215,53 @@
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="50"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="50"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="50"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="50"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="52"/>
+      <c r="C42" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A37:A42"/>
@@ -6466,6 +6272,12 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="EsteLivro" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" tabRatio="693" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" tabRatio="693" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="gantt 1semestre" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
   <si>
     <t>Plano</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Experiments</t>
   </si>
 </sst>
 </file>
@@ -1186,6 +1189,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1203,9 +1209,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1832,7 +1835,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10" val="44"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10" val="51"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3046,11 +3049,11 @@
   </sheetPr>
   <dimension ref="B2:BZ1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P38" sqref="P38"/>
+      <selection pane="bottomRight" activeCell="BD38" sqref="BD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3097,7 +3100,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="18">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="S3" s="8"/>
       <c r="U3" s="9"/>
@@ -4957,13 +4960,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BZ1048569"/>
+  <dimension ref="B2:BZ1048570"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BM27" sqref="BM27"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -5479,47 +5482,51 @@
     </row>
     <row r="12" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C12" s="15">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D12" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
-        <v>14</v>
+    <row r="13" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
+        <v>116</v>
       </c>
       <c r="C13" s="15">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D13" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>5</v>
+      </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -5529,7 +5536,7 @@
     </row>
     <row r="16" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -5537,107 +5544,51 @@
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="2:78" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:78" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="15">
-        <v>11</v>
-      </c>
-      <c r="D17" s="15">
-        <v>30</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:78" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="C18" s="15">
+        <v>11</v>
+      </c>
+      <c r="D18" s="15">
+        <v>30</v>
+      </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:78" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-      <c r="AF19"/>
-      <c r="AG19"/>
-      <c r="AH19"/>
-      <c r="AI19"/>
-      <c r="AJ19"/>
-      <c r="AK19"/>
-      <c r="AL19"/>
-      <c r="AM19"/>
-      <c r="AN19"/>
-      <c r="AO19"/>
-      <c r="AP19"/>
-      <c r="AQ19"/>
-      <c r="AR19"/>
-      <c r="AS19"/>
-      <c r="AT19"/>
-      <c r="AU19"/>
-      <c r="AV19"/>
-      <c r="AW19"/>
-      <c r="AX19"/>
-      <c r="AY19"/>
-      <c r="AZ19"/>
-      <c r="BA19"/>
-      <c r="BB19"/>
-      <c r="BC19"/>
-      <c r="BD19"/>
-      <c r="BE19"/>
-      <c r="BF19"/>
-      <c r="BG19"/>
-      <c r="BH19"/>
-      <c r="BI19"/>
-      <c r="BJ19"/>
-      <c r="BK19"/>
-      <c r="BL19"/>
-      <c r="BM19"/>
-      <c r="BN19"/>
-      <c r="BO19"/>
-      <c r="BP19"/>
-      <c r="BQ19"/>
-      <c r="BR19"/>
-      <c r="BS19"/>
-      <c r="BT19"/>
-      <c r="BU19"/>
-      <c r="BV19"/>
-      <c r="BW19"/>
-      <c r="BX19"/>
-      <c r="BY19"/>
-      <c r="BZ19"/>
     </row>
     <row r="20" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="15">
-        <v>11</v>
-      </c>
-      <c r="D20" s="15">
-        <v>30</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
+      <c r="G20" s="16"/>
       <c r="AC20"/>
       <c r="AD20"/>
       <c r="AE20"/>
@@ -5691,13 +5642,19 @@
     </row>
     <row r="21" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="C21" s="15">
+        <v>11</v>
+      </c>
+      <c r="D21" s="15">
+        <v>30</v>
+      </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
       <c r="AC21"/>
       <c r="AD21"/>
       <c r="AE21"/>
@@ -5751,7 +5708,7 @@
     </row>
     <row r="22" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -5809,53 +5766,109 @@
       <c r="BY22"/>
       <c r="BZ22"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="36"/>
+    <row r="23" spans="2:78" s="1" customFormat="1" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+      <c r="BK23"/>
+      <c r="BL23"/>
+      <c r="BM23"/>
+      <c r="BN23"/>
+      <c r="BO23"/>
+      <c r="BP23"/>
+      <c r="BQ23"/>
+      <c r="BR23"/>
+      <c r="BS23"/>
+      <c r="BT23"/>
+      <c r="BU23"/>
+      <c r="BV23"/>
+      <c r="BW23"/>
+      <c r="BX23"/>
+      <c r="BY23"/>
+      <c r="BZ23"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="20"/>
       <c r="C34" s="36"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
-        <v>16</v>
-      </c>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="20"/>
       <c r="C35" s="36"/>
-      <c r="D35" s="37" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="36"/>
       <c r="D37" s="37" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="20"/>
-      <c r="C39" s="36"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="20"/>
@@ -5866,18 +5879,22 @@
       <c r="C41" s="36"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="36"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="33"/>
       <c r="C43" s="36"/>
     </row>
-    <row r="1048568" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1048568" s="16"/>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="C44" s="36"/>
     </row>
     <row r="1048569" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G1048569" s="16"/>
+    </row>
+    <row r="1048570" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G1048570" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5891,7 +5908,7 @@
     <mergeCell ref="AW7:BF7"/>
     <mergeCell ref="BG7:BP7"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:BP22">
+  <conditionalFormatting sqref="I9:BP23">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentagemConcluída</formula>
     </cfRule>
@@ -5917,7 +5934,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:BP23">
+  <conditionalFormatting sqref="B24:BP24">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
@@ -5990,29 +6007,29 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -6024,67 +6041,67 @@
       <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="50" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="50" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="51"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="52"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="34" t="s">
@@ -6102,7 +6119,7 @@
         <v>74</v>
       </c>
       <c r="C13" s="53"/>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="46" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="34" t="s">
@@ -6119,7 +6136,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="54"/>
-      <c r="F14" s="52"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="34" t="s">
         <v>101</v>
       </c>
@@ -6159,43 +6176,43 @@
       <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="50"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="52"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="47" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="51"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="52"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
@@ -6215,53 +6232,59 @@
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="50" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="50"/>
+      <c r="C38" s="51"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="50"/>
+      <c r="C39" s="51"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="50"/>
+      <c r="C40" s="51"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="50"/>
+      <c r="C41" s="51"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="48"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A37:A42"/>
@@ -6272,12 +6295,6 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -1189,26 +1189,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1835,7 +1835,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10" val="51"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10" val="55"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3053,7 +3053,7 @@
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BD38" sqref="BD38"/>
+      <selection pane="bottomRight" activeCell="AH39" sqref="AH39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3100,7 +3100,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="18">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S3" s="8"/>
       <c r="U3" s="9"/>
@@ -3760,13 +3760,13 @@
         <v>113</v>
       </c>
       <c r="C18" s="15">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="15">
         <v>3</v>
       </c>
       <c r="E18" s="15">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="15">
         <v>3</v>
@@ -4921,7 +4921,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4966,7 +4966,7 @@
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="AJ29" sqref="AJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6007,29 +6007,29 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -6041,67 +6041,67 @@
       <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="50"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="51"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="50"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="50"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="46"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="51"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="34" t="s">
@@ -6119,7 +6119,7 @@
         <v>74</v>
       </c>
       <c r="C13" s="53"/>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="52" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="34" t="s">
@@ -6136,7 +6136,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="54"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="34" t="s">
         <v>101</v>
       </c>
@@ -6176,43 +6176,43 @@
       <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="49"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="46" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="49"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="50"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="51"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
@@ -6232,59 +6232,53 @@
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="50"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="50"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="50"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="50"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="52"/>
+      <c r="C42" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A37:A42"/>
@@ -6295,6 +6289,12 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="EsteLivro" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" tabRatio="693" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" tabRatio="693" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gantt 1semestre" sheetId="1" r:id="rId1"/>
@@ -487,12 +487,6 @@
     <t>Evaluate methods - Implementation</t>
   </si>
   <si>
-    <t>1º Semester</t>
-  </si>
-  <si>
-    <t>2º Semester</t>
-  </si>
-  <si>
     <t>Setembro</t>
   </si>
   <si>
@@ -509,13 +503,69 @@
   </si>
   <si>
     <t>Experiments</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="42"/>
+        <color theme="7"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">nd </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="42"/>
+        <color theme="7"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Semester</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="42"/>
+        <color theme="7"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="42"/>
+        <color theme="7"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Semester</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -618,6 +668,15 @@
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="42"/>
+      <color theme="7"/>
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -1189,6 +1248,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1206,9 +1268,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3049,11 +3108,11 @@
   </sheetPr>
   <dimension ref="B2:BZ1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AH39" sqref="AH39"/>
+      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3071,7 +3130,7 @@
   <sheetData>
     <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -4962,11 +5021,11 @@
   </sheetPr>
   <dimension ref="B2:BZ1048570"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AJ29" sqref="AJ29"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4984,7 +5043,7 @@
   <sheetData>
     <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -5166,7 +5225,7 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
@@ -5178,7 +5237,7 @@
       <c r="Q7" s="42"/>
       <c r="R7" s="43"/>
       <c r="S7" s="41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T7" s="42"/>
       <c r="U7" s="42"/>
@@ -5190,7 +5249,7 @@
       <c r="AA7" s="42"/>
       <c r="AB7" s="43"/>
       <c r="AC7" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD7" s="42"/>
       <c r="AE7" s="42"/>
@@ -5202,7 +5261,7 @@
       <c r="AK7" s="42"/>
       <c r="AL7" s="43"/>
       <c r="AM7" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AN7" s="42"/>
       <c r="AO7" s="42"/>
@@ -5214,7 +5273,7 @@
       <c r="AU7" s="42"/>
       <c r="AV7" s="43"/>
       <c r="AW7" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AX7" s="42"/>
       <c r="AY7" s="42"/>
@@ -5482,7 +5541,7 @@
     </row>
     <row r="12" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="15">
         <v>25</v>
@@ -6007,29 +6066,29 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -6041,67 +6100,67 @@
       <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="50" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="50" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="51"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="52"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="34" t="s">
@@ -6119,7 +6178,7 @@
         <v>74</v>
       </c>
       <c r="C13" s="53"/>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="46" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="34" t="s">
@@ -6136,7 +6195,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="54"/>
-      <c r="F14" s="52"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="34" t="s">
         <v>101</v>
       </c>
@@ -6176,43 +6235,43 @@
       <c r="C18" s="55"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="50"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="52"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="47" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="51"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="52"/>
     </row>
     <row r="24" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
@@ -6232,53 +6291,59 @@
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="50" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="50"/>
+      <c r="C38" s="51"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="50"/>
+      <c r="C39" s="51"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="50"/>
+      <c r="C40" s="51"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="50"/>
+      <c r="C41" s="51"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="48"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A37:A42"/>
@@ -6289,12 +6354,6 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -4,48 +4,69 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="EsteLivro" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" tabRatio="693" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8085" tabRatio="693" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="gantt 1semestre" sheetId="1" r:id="rId1"/>
-    <sheet name="gantt 1semestre real" sheetId="4" r:id="rId2"/>
-    <sheet name="gantt 2semestre" sheetId="3" r:id="rId3"/>
-    <sheet name="gantt 2semestre real" sheetId="5" r:id="rId4"/>
-    <sheet name="riscos" sheetId="2" r:id="rId5"/>
+    <sheet name="1semestre" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="1semestre real" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="1Semester" sheetId="6" r:id="rId3"/>
+    <sheet name="2semestre" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="2semestre real" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="2Semester" sheetId="7" r:id="rId6"/>
+    <sheet name="risks" sheetId="2" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="PercentagemConcluída" localSheetId="1">'gantt 1semestre real'!PercentagemConcluídaAlém*'gantt 1semestre real'!PeríodoDoPlano</definedName>
-    <definedName name="PercentagemConcluída" localSheetId="2">'gantt 2semestre'!PercentagemConcluídaAlém*'gantt 2semestre'!PeríodoDoPlano</definedName>
-    <definedName name="PercentagemConcluída" localSheetId="3">'gantt 2semestre real'!PercentagemConcluídaAlém*'gantt 2semestre real'!PeríodoDoPlano</definedName>
+    <definedName name="Actual" localSheetId="5">('2Semester'!PeriodInActual*('2Semester'!$E1&gt;0))*'2Semester'!PeriodInPlan</definedName>
+    <definedName name="Actual">(PeriodInActual*('1Semester'!$E1&gt;0))*PeriodInPlan</definedName>
+    <definedName name="ActualBeyond" localSheetId="5">'2Semester'!PeriodInActual*('2Semester'!$E1&gt;0)</definedName>
+    <definedName name="ActualBeyond">PeriodInActual*('1Semester'!$E1&gt;0)</definedName>
+    <definedName name="PercentagemConcluída" localSheetId="1">'1semestre real'!PercentagemConcluídaAlém*'1semestre real'!PeríodoDoPlano</definedName>
+    <definedName name="PercentagemConcluída" localSheetId="3">'2semestre'!PercentagemConcluídaAlém*'2semestre'!PeríodoDoPlano</definedName>
+    <definedName name="PercentagemConcluída" localSheetId="4">'2semestre real'!PercentagemConcluídaAlém*'2semestre real'!PeríodoDoPlano</definedName>
     <definedName name="PercentagemConcluída">PercentagemConcluídaAlém*PeríodoDoPlano</definedName>
-    <definedName name="PercentagemConcluídaAlém" localSheetId="1">('gantt 1semestre real'!A$8=MEDIAN('gantt 1semestre real'!A$8,'gantt 1semestre real'!$E1,'gantt 1semestre real'!$E1+'gantt 1semestre real'!$F1)*('gantt 1semestre real'!$E1&gt;0))*(('gantt 1semestre real'!A$8&lt;(INT('gantt 1semestre real'!$E1+'gantt 1semestre real'!$F1*'gantt 1semestre real'!$G1)))+('gantt 1semestre real'!A$8='gantt 1semestre real'!$E1))*('gantt 1semestre real'!$G1&gt;0)</definedName>
-    <definedName name="PercentagemConcluídaAlém" localSheetId="2">('gantt 2semestre'!A$8=MEDIAN('gantt 2semestre'!A$8,'gantt 2semestre'!$E1,'gantt 2semestre'!$E1+'gantt 2semestre'!$F1)*('gantt 2semestre'!$E1&gt;0))*(('gantt 2semestre'!A$8&lt;(INT('gantt 2semestre'!$E1+'gantt 2semestre'!$F1*'gantt 2semestre'!$G1)))+('gantt 2semestre'!A$8='gantt 2semestre'!$E1))*('gantt 2semestre'!$G1&gt;0)</definedName>
-    <definedName name="PercentagemConcluídaAlém" localSheetId="3">('gantt 2semestre real'!A$8=MEDIAN('gantt 2semestre real'!A$8,'gantt 2semestre real'!$E1,'gantt 2semestre real'!$E1+'gantt 2semestre real'!$F1)*('gantt 2semestre real'!$E1&gt;0))*(('gantt 2semestre real'!A$8&lt;(INT('gantt 2semestre real'!$E1+'gantt 2semestre real'!$F1*'gantt 2semestre real'!$G1)))+('gantt 2semestre real'!A$8='gantt 2semestre real'!$E1))*('gantt 2semestre real'!$G1&gt;0)</definedName>
-    <definedName name="PercentagemConcluídaAlém">('gantt 1semestre'!A$8=MEDIAN('gantt 1semestre'!A$8,'gantt 1semestre'!$E1,'gantt 1semestre'!$E1+'gantt 1semestre'!$F1)*('gantt 1semestre'!$E1&gt;0))*(('gantt 1semestre'!A$8&lt;(INT('gantt 1semestre'!$E1+'gantt 1semestre'!$F1*'gantt 1semestre'!$G1)))+('gantt 1semestre'!A$8='gantt 1semestre'!$E1))*('gantt 1semestre'!$G1&gt;0)</definedName>
-    <definedName name="período_selecionado" localSheetId="1">'gantt 1semestre real'!$R$3</definedName>
-    <definedName name="período_selecionado" localSheetId="2">'gantt 2semestre'!$R$3</definedName>
-    <definedName name="período_selecionado" localSheetId="3">'gantt 2semestre real'!$R$3</definedName>
-    <definedName name="período_selecionado">'gantt 1semestre'!$R$3</definedName>
-    <definedName name="PeríodoDoPlano" localSheetId="1">'gantt 1semestre real'!A$8=MEDIAN('gantt 1semestre real'!A$8,'gantt 1semestre real'!$C1,'gantt 1semestre real'!$C1+'gantt 1semestre real'!$D1-1)</definedName>
-    <definedName name="PeríodoDoPlano" localSheetId="2">'gantt 2semestre'!A$8=MEDIAN('gantt 2semestre'!A$8,'gantt 2semestre'!$C1,'gantt 2semestre'!$C1+'gantt 2semestre'!$D1-1)</definedName>
-    <definedName name="PeríodoDoPlano" localSheetId="3">'gantt 2semestre real'!A$8=MEDIAN('gantt 2semestre real'!A$8,'gantt 2semestre real'!$C1,'gantt 2semestre real'!$C1+'gantt 2semestre real'!$D1-1)</definedName>
-    <definedName name="PeríodoDoPlano">'gantt 1semestre'!A$8=MEDIAN('gantt 1semestre'!A$8,'gantt 1semestre'!$C1,'gantt 1semestre'!$C1+'gantt 1semestre'!$D1-1)</definedName>
-    <definedName name="PeríodoReal" localSheetId="1">'gantt 1semestre real'!A$8=MEDIAN('gantt 1semestre real'!A$8,'gantt 1semestre real'!$E1,'gantt 1semestre real'!$E1+'gantt 1semestre real'!$F1-1)</definedName>
-    <definedName name="PeríodoReal" localSheetId="2">'gantt 2semestre'!A$8=MEDIAN('gantt 2semestre'!A$8,'gantt 2semestre'!$E1,'gantt 2semestre'!$E1+'gantt 2semestre'!$F1-1)</definedName>
-    <definedName name="PeríodoReal" localSheetId="3">'gantt 2semestre real'!A$8=MEDIAN('gantt 2semestre real'!A$8,'gantt 2semestre real'!$E1,'gantt 2semestre real'!$E1+'gantt 2semestre real'!$F1-1)</definedName>
-    <definedName name="PeríodoReal">'gantt 1semestre'!A$8=MEDIAN('gantt 1semestre'!A$8,'gantt 1semestre'!$E1,'gantt 1semestre'!$E1+'gantt 1semestre'!$F1-1)</definedName>
-    <definedName name="Plano" localSheetId="1">'gantt 1semestre real'!PeríodoDoPlano*('gantt 1semestre real'!$C1&gt;0)</definedName>
-    <definedName name="Plano" localSheetId="2">'gantt 2semestre'!PeríodoDoPlano*('gantt 2semestre'!$C1&gt;0)</definedName>
-    <definedName name="Plano" localSheetId="3">'gantt 2semestre real'!PeríodoDoPlano*('gantt 2semestre real'!$C1&gt;0)</definedName>
-    <definedName name="Plano">PeríodoDoPlano*('gantt 1semestre'!$C1&gt;0)</definedName>
-    <definedName name="Real" localSheetId="1">('gantt 1semestre real'!PeríodoReal*('gantt 1semestre real'!$E1&gt;0))*'gantt 1semestre real'!PeríodoDoPlano</definedName>
-    <definedName name="Real" localSheetId="2">('gantt 2semestre'!PeríodoReal*('gantt 2semestre'!$E1&gt;0))*'gantt 2semestre'!PeríodoDoPlano</definedName>
-    <definedName name="Real" localSheetId="3">('gantt 2semestre real'!PeríodoReal*('gantt 2semestre real'!$E1&gt;0))*'gantt 2semestre real'!PeríodoDoPlano</definedName>
-    <definedName name="Real">(PeríodoReal*('gantt 1semestre'!$E1&gt;0))*PeríodoDoPlano</definedName>
-    <definedName name="RealAlém" localSheetId="1">'gantt 1semestre real'!PeríodoReal*('gantt 1semestre real'!$E1&gt;0)</definedName>
-    <definedName name="RealAlém" localSheetId="2">'gantt 2semestre'!PeríodoReal*('gantt 2semestre'!$E1&gt;0)</definedName>
-    <definedName name="RealAlém" localSheetId="3">'gantt 2semestre real'!PeríodoReal*('gantt 2semestre real'!$E1&gt;0)</definedName>
-    <definedName name="RealAlém">PeríodoReal*('gantt 1semestre'!$E1&gt;0)</definedName>
+    <definedName name="PercentagemConcluídaAlém" localSheetId="1">('1semestre real'!A$8=MEDIAN('1semestre real'!A$8,'1semestre real'!$E1,'1semestre real'!$E1+'1semestre real'!$F1)*('1semestre real'!$E1&gt;0))*(('1semestre real'!A$8&lt;(INT('1semestre real'!$E1+'1semestre real'!$F1*'1semestre real'!$G1)))+('1semestre real'!A$8='1semestre real'!$E1))*('1semestre real'!$G1&gt;0)</definedName>
+    <definedName name="PercentagemConcluídaAlém" localSheetId="3">('2semestre'!A$8=MEDIAN('2semestre'!A$8,'2semestre'!$E1,'2semestre'!$E1+'2semestre'!$F1)*('2semestre'!$E1&gt;0))*(('2semestre'!A$8&lt;(INT('2semestre'!$E1+'2semestre'!$F1*'2semestre'!$G1)))+('2semestre'!A$8='2semestre'!$E1))*('2semestre'!$G1&gt;0)</definedName>
+    <definedName name="PercentagemConcluídaAlém" localSheetId="4">('2semestre real'!A$8=MEDIAN('2semestre real'!A$8,'2semestre real'!$E1,'2semestre real'!$E1+'2semestre real'!$F1)*('2semestre real'!$E1&gt;0))*(('2semestre real'!A$8&lt;(INT('2semestre real'!$E1+'2semestre real'!$F1*'2semestre real'!$G1)))+('2semestre real'!A$8='2semestre real'!$E1))*('2semestre real'!$G1&gt;0)</definedName>
+    <definedName name="PercentagemConcluídaAlém">('1semestre'!A$8=MEDIAN('1semestre'!A$8,'1semestre'!$E1,'1semestre'!$E1+'1semestre'!$F1)*('1semestre'!$E1&gt;0))*(('1semestre'!A$8&lt;(INT('1semestre'!$E1+'1semestre'!$F1*'1semestre'!$G1)))+('1semestre'!A$8='1semestre'!$E1))*('1semestre'!$G1&gt;0)</definedName>
+    <definedName name="PercentComplete" localSheetId="5">'2Semester'!PercentCompleteBeyond*'2Semester'!PeriodInPlan</definedName>
+    <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
+    <definedName name="PercentCompleteBeyond" localSheetId="5">('2Semester'!A$8=MEDIAN('2Semester'!A$8,'2Semester'!$E1,'2Semester'!$E1+'2Semester'!$F1)*('2Semester'!$E1&gt;0))*(('2Semester'!A$8&lt;(INT('2Semester'!$E1+'2Semester'!$F1*'2Semester'!$G1)))+('2Semester'!A$8='2Semester'!$E1))*('2Semester'!$G1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond">('1Semester'!A$8=MEDIAN('1Semester'!A$8,'1Semester'!$E1,'1Semester'!$E1+'1Semester'!$F1)*('1Semester'!$E1&gt;0))*(('1Semester'!A$8&lt;(INT('1Semester'!$E1+'1Semester'!$F1*'1Semester'!$G1)))+('1Semester'!A$8='1Semester'!$E1))*('1Semester'!$G1&gt;0)</definedName>
+    <definedName name="period_selected" localSheetId="5">'2Semester'!$N$3</definedName>
+    <definedName name="period_selected">'[1]1Semester'!$N$3</definedName>
+    <definedName name="PeriodInActual" localSheetId="5">'2Semester'!A$8=MEDIAN('2Semester'!A$8,'2Semester'!$E1,'2Semester'!$E1+'2Semester'!$F1-1)</definedName>
+    <definedName name="PeriodInActual">'1Semester'!A$8=MEDIAN('1Semester'!A$8,'1Semester'!$E1,'1Semester'!$E1+'1Semester'!$F1-1)</definedName>
+    <definedName name="PeriodInPlan" localSheetId="5">'2Semester'!A$8=MEDIAN('2Semester'!A$8,'2Semester'!$C1,'2Semester'!$C1+'2Semester'!$D1-1)</definedName>
+    <definedName name="PeriodInPlan">'1Semester'!A$8=MEDIAN('1Semester'!A$8,'1Semester'!$C1,'1Semester'!$C1+'1Semester'!$D1-1)</definedName>
+    <definedName name="período_selecionado" localSheetId="1">'1semestre real'!$R$3</definedName>
+    <definedName name="período_selecionado" localSheetId="3">'2semestre'!$R$3</definedName>
+    <definedName name="período_selecionado" localSheetId="4">'2semestre real'!$R$3</definedName>
+    <definedName name="período_selecionado">'1semestre'!$R$3</definedName>
+    <definedName name="PeríodoDoPlano" localSheetId="1">'1semestre real'!A$8=MEDIAN('1semestre real'!A$8,'1semestre real'!$C1,'1semestre real'!$C1+'1semestre real'!$D1-1)</definedName>
+    <definedName name="PeríodoDoPlano" localSheetId="3">'2semestre'!A$8=MEDIAN('2semestre'!A$8,'2semestre'!$C1,'2semestre'!$C1+'2semestre'!$D1-1)</definedName>
+    <definedName name="PeríodoDoPlano" localSheetId="4">'2semestre real'!A$8=MEDIAN('2semestre real'!A$8,'2semestre real'!$C1,'2semestre real'!$C1+'2semestre real'!$D1-1)</definedName>
+    <definedName name="PeríodoDoPlano">'1semestre'!A$8=MEDIAN('1semestre'!A$8,'1semestre'!$C1,'1semestre'!$C1+'1semestre'!$D1-1)</definedName>
+    <definedName name="PeríodoReal" localSheetId="1">'1semestre real'!A$8=MEDIAN('1semestre real'!A$8,'1semestre real'!$E1,'1semestre real'!$E1+'1semestre real'!$F1-1)</definedName>
+    <definedName name="PeríodoReal" localSheetId="3">'2semestre'!A$8=MEDIAN('2semestre'!A$8,'2semestre'!$E1,'2semestre'!$E1+'2semestre'!$F1-1)</definedName>
+    <definedName name="PeríodoReal" localSheetId="4">'2semestre real'!A$8=MEDIAN('2semestre real'!A$8,'2semestre real'!$E1,'2semestre real'!$E1+'2semestre real'!$F1-1)</definedName>
+    <definedName name="PeríodoReal">'1semestre'!A$8=MEDIAN('1semestre'!A$8,'1semestre'!$E1,'1semestre'!$E1+'1semestre'!$F1-1)</definedName>
+    <definedName name="Plan" localSheetId="5">'2Semester'!PeriodInPlan*('2Semester'!$C1&gt;0)</definedName>
+    <definedName name="Plan">PeriodInPlan*('1Semester'!$C1&gt;0)</definedName>
+    <definedName name="Plano" localSheetId="1">'1semestre real'!PeríodoDoPlano*('1semestre real'!$C1&gt;0)</definedName>
+    <definedName name="Plano" localSheetId="3">'2semestre'!PeríodoDoPlano*('2semestre'!$C1&gt;0)</definedName>
+    <definedName name="Plano" localSheetId="4">'2semestre real'!PeríodoDoPlano*('2semestre real'!$C1&gt;0)</definedName>
+    <definedName name="Plano">PeríodoDoPlano*('1semestre'!$C1&gt;0)</definedName>
+    <definedName name="Real" localSheetId="1">('1semestre real'!PeríodoReal*('1semestre real'!$E1&gt;0))*'1semestre real'!PeríodoDoPlano</definedName>
+    <definedName name="Real" localSheetId="3">('2semestre'!PeríodoReal*('2semestre'!$E1&gt;0))*'2semestre'!PeríodoDoPlano</definedName>
+    <definedName name="Real" localSheetId="4">('2semestre real'!PeríodoReal*('2semestre real'!$E1&gt;0))*'2semestre real'!PeríodoDoPlano</definedName>
+    <definedName name="Real">(PeríodoReal*('1semestre'!$E1&gt;0))*PeríodoDoPlano</definedName>
+    <definedName name="RealAlém" localSheetId="1">'1semestre real'!PeríodoReal*('1semestre real'!$E1&gt;0)</definedName>
+    <definedName name="RealAlém" localSheetId="3">'2semestre'!PeríodoReal*('2semestre'!$E1&gt;0)</definedName>
+    <definedName name="RealAlém" localSheetId="4">'2semestre real'!PeríodoReal*('2semestre real'!$E1&gt;0)</definedName>
+    <definedName name="RealAlém">PeríodoReal*('1semestre'!$E1&gt;0)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -57,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="163">
   <si>
     <t>Plano</t>
   </si>
@@ -487,6 +508,9 @@
     <t>Evaluate methods - Implementation</t>
   </si>
   <si>
+    <t>1º Semester</t>
+  </si>
+  <si>
     <t>Setembro</t>
   </si>
   <si>
@@ -560,12 +584,199 @@
       <t xml:space="preserve"> Semester</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> Period Highlight:</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Complete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actual (beyond plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Complete (beyond plan)</t>
+    </r>
+  </si>
+  <si>
+    <t>% Complete</t>
+  </si>
+  <si>
+    <t>Actual (beyond plan)</t>
+  </si>
+  <si>
+    <t>% Complete (beyond plan)</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>ACTUAL</t>
+  </si>
+  <si>
+    <t>PERCENT</t>
+  </si>
+  <si>
+    <t>PERIODS</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="42"/>
+        <color theme="7"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="42"/>
+        <color theme="7"/>
+        <rFont val="Corbel"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Semester</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -680,6 +891,27 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1111,7 +1343,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,6 +1519,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="7" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Activity" xfId="2"/>
@@ -1298,7 +1551,291 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1894,15 +2431,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10" val="55"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="55"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="período_selecionado" max="60" min="1" page="10"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="55"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2015,23 +2564,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>18</xdr:col>
+          <xdr:col>14</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
+          <xdr:col>14</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="Controlo Giratório 5" descr="Period Highlight Spin Control" hidden="1">
+            <xdr:cNvPr id="8193" name="Spinner 1" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
+                  <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2080,6 +2629,58 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Controlo Giratório 5" descr="Period Highlight Spin Control" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
             <xdr:cNvPr id="6145" name="Controlo Giratório 5" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
@@ -2110,7 +2711,127 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6146" name="Spinner 2" descr="Period Highlight Spin Control" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6146"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9217" name="Spinner 1" descr="Period Highlight Spin Control" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1Semester"/>
+      <sheetName val="2Semester"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>55</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3026,38 +3747,38 @@
     <mergeCell ref="BG7:BP7"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP23">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>PercentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="58" priority="3">
       <formula>PercentagemConcluídaAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="4">
+    <cfRule type="expression" dxfId="57" priority="4">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="5">
+    <cfRule type="expression" dxfId="56" priority="5">
       <formula>RealAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="6">
+    <cfRule type="expression" dxfId="55" priority="6">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="7">
+    <cfRule type="expression" dxfId="54" priority="7">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="53" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="52" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:BP24">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="30" priority="8">
+    <cfRule type="expression" dxfId="50" priority="8">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3108,11 +3829,11 @@
   </sheetPr>
   <dimension ref="B2:BZ1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3130,7 +3851,7 @@
   <sheetData>
     <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -3150,45 +3871,50 @@
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
       <c r="K3" s="8" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="P3" s="8">
+        <v>2</v>
+      </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="18">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="S3" s="8"/>
+      <c r="T3" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="U3" s="9"/>
-      <c r="V3" s="17" t="s">
-        <v>0</v>
+      <c r="V3" s="17"/>
+      <c r="W3" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="Y3" s="10"/>
-      <c r="Z3" s="17" t="s">
-        <v>1</v>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AB3" s="11"/>
-      <c r="AC3" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="AC3" s="6"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AF3" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="AG3" s="12"/>
-      <c r="AH3" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="AH3" s="17"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
+      <c r="AN3" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="AP3" s="13"/>
-      <c r="AQ3" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="AQ3" s="6"/>
     </row>
     <row r="4" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="38"/>
@@ -4272,12 +4998,50 @@
       <c r="BY29"/>
       <c r="BZ29"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="M35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>54</v>
       </c>
@@ -4285,7 +5049,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
         <v>93</v>
       </c>
@@ -4293,7 +5057,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
         <v>94</v>
       </c>
@@ -4301,7 +5065,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
         <v>95</v>
       </c>
@@ -4309,7 +5073,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
         <v>96</v>
       </c>
@@ -4317,7 +5081,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>99</v>
       </c>
@@ -4325,7 +5089,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
         <v>97</v>
       </c>
@@ -4333,7 +5097,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
         <v>98</v>
       </c>
@@ -4341,7 +5105,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
         <v>15</v>
       </c>
@@ -4384,38 +5148,38 @@
     <mergeCell ref="BG7:BP7"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP29">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>PercentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>PercentagemConcluídaAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="46" priority="5">
       <formula>RealAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="45" priority="6">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="43" priority="9">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="42" priority="10">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:BP30">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="40" priority="8">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4459,10 +5223,807 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B2:BQ38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
+    <col min="9" max="13" width="2.75" style="1"/>
+    <col min="14" max="14" width="2.75" style="1" customWidth="1"/>
+    <col min="15" max="28" width="2.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:69" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="I3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="61">
+        <v>55</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+    </row>
+    <row r="5" spans="2:69" x14ac:dyDescent="0.3">
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+    </row>
+    <row r="6" spans="2:69" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="45"/>
+      <c r="AZ6" s="45"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="45"/>
+      <c r="BC6" s="45"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="45"/>
+      <c r="BF6" s="45"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="45"/>
+      <c r="BI6" s="45"/>
+      <c r="BJ6" s="45"/>
+      <c r="BK6" s="45"/>
+      <c r="BL6" s="45"/>
+      <c r="BM6" s="45"/>
+      <c r="BN6" s="45"/>
+      <c r="BO6" s="45"/>
+      <c r="BP6" s="45"/>
+    </row>
+    <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX7" s="46"/>
+      <c r="AY7" s="46"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="46"/>
+      <c r="BC7" s="46"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="46"/>
+      <c r="BG7" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH7" s="46"/>
+      <c r="BI7" s="46"/>
+      <c r="BJ7" s="46"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="46"/>
+      <c r="BM7" s="46"/>
+      <c r="BN7" s="46"/>
+      <c r="BO7" s="46"/>
+      <c r="BP7" s="46"/>
+    </row>
+    <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3">
+        <v>7</v>
+      </c>
+      <c r="P8" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>9</v>
+      </c>
+      <c r="R8" s="3">
+        <v>10</v>
+      </c>
+      <c r="S8" s="3">
+        <v>11</v>
+      </c>
+      <c r="T8" s="3">
+        <v>12</v>
+      </c>
+      <c r="U8" s="3">
+        <v>13</v>
+      </c>
+      <c r="V8" s="3">
+        <v>14</v>
+      </c>
+      <c r="W8" s="3">
+        <v>15</v>
+      </c>
+      <c r="X8" s="3">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>18</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>21</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>23</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>24</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>26</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>27</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>28</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>29</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>30</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>31</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>32</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>33</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>34</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>35</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>36</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>37</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>38</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>39</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>40</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>41</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>42</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>43</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>44</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>45</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>46</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>47</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>48</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>49</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>50</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>51</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>52</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>53</v>
+      </c>
+      <c r="BJ8" s="3">
+        <v>54</v>
+      </c>
+      <c r="BK8" s="3">
+        <v>55</v>
+      </c>
+      <c r="BL8" s="3">
+        <v>56</v>
+      </c>
+      <c r="BM8" s="3">
+        <v>57</v>
+      </c>
+      <c r="BN8" s="3">
+        <v>58</v>
+      </c>
+      <c r="BO8" s="3">
+        <v>59</v>
+      </c>
+      <c r="BP8" s="3">
+        <v>60</v>
+      </c>
+      <c r="BQ8" s="1"/>
+    </row>
+    <row r="9" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="64">
+        <v>1</v>
+      </c>
+      <c r="D9" s="64">
+        <v>10</v>
+      </c>
+      <c r="E9" s="64">
+        <v>1</v>
+      </c>
+      <c r="F9" s="64">
+        <v>10</v>
+      </c>
+      <c r="G9" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="64">
+        <v>5</v>
+      </c>
+      <c r="D10" s="64">
+        <v>5</v>
+      </c>
+      <c r="E10" s="64">
+        <v>5</v>
+      </c>
+      <c r="F10" s="64">
+        <v>5</v>
+      </c>
+      <c r="G10" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="64">
+        <v>7</v>
+      </c>
+      <c r="D11" s="64">
+        <v>10</v>
+      </c>
+      <c r="E11" s="64">
+        <v>7</v>
+      </c>
+      <c r="F11" s="64">
+        <v>10</v>
+      </c>
+      <c r="G11" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="64">
+        <v>9</v>
+      </c>
+      <c r="D12" s="64">
+        <v>5</v>
+      </c>
+      <c r="E12" s="64">
+        <v>9</v>
+      </c>
+      <c r="F12" s="64">
+        <v>5</v>
+      </c>
+      <c r="G12" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="64">
+        <v>12</v>
+      </c>
+      <c r="D13" s="64">
+        <v>10</v>
+      </c>
+      <c r="E13" s="64">
+        <v>12</v>
+      </c>
+      <c r="F13" s="64">
+        <v>10</v>
+      </c>
+      <c r="G13" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="64">
+        <v>16</v>
+      </c>
+      <c r="D14" s="64">
+        <v>15</v>
+      </c>
+      <c r="E14" s="64">
+        <v>16</v>
+      </c>
+      <c r="F14" s="64">
+        <v>15</v>
+      </c>
+      <c r="G14" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="64">
+        <v>19</v>
+      </c>
+      <c r="D15" s="64">
+        <v>5</v>
+      </c>
+      <c r="E15" s="64">
+        <v>19</v>
+      </c>
+      <c r="F15" s="64">
+        <v>5</v>
+      </c>
+      <c r="G15" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="64">
+        <v>31</v>
+      </c>
+      <c r="D16" s="64">
+        <v>10</v>
+      </c>
+      <c r="E16" s="64">
+        <v>31</v>
+      </c>
+      <c r="F16" s="64">
+        <v>10</v>
+      </c>
+      <c r="G16" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="64">
+        <v>41</v>
+      </c>
+      <c r="D17" s="64">
+        <v>10</v>
+      </c>
+      <c r="E17" s="64">
+        <v>41</v>
+      </c>
+      <c r="F17" s="64">
+        <v>10</v>
+      </c>
+      <c r="G17" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="64">
+        <v>48</v>
+      </c>
+      <c r="D18" s="64">
+        <v>3</v>
+      </c>
+      <c r="E18" s="64">
+        <v>48</v>
+      </c>
+      <c r="F18" s="64">
+        <v>3</v>
+      </c>
+      <c r="G18" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="64">
+        <v>49</v>
+      </c>
+      <c r="D19" s="64">
+        <v>7</v>
+      </c>
+      <c r="E19" s="64">
+        <v>49</v>
+      </c>
+      <c r="F19" s="64">
+        <v>7</v>
+      </c>
+      <c r="G19" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:G4"/>
+    <mergeCell ref="I6:BP6"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:AB7"/>
+    <mergeCell ref="AC7:AL7"/>
+    <mergeCell ref="AM7:AV7"/>
+    <mergeCell ref="AW7:BF7"/>
+    <mergeCell ref="BG7:BP7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:BP19">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="4">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="5">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="6">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:BP20">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:BP8">
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="8193" r:id="rId4" name="Spinner 1">
+              <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:BQ12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4944,38 +6505,38 @@
     <mergeCell ref="AW7:BF7"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP12">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>PercentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>PercentagemConcluídaAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>RealAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="35" priority="7">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="32" priority="11">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:BP13">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5014,7 +6575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5025,7 +6586,7 @@
       <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -5043,7 +6604,7 @@
   <sheetData>
     <row r="2" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -5063,44 +6624,41 @@
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
       <c r="K3" s="8" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="P3" s="59">
+        <v>1</v>
+      </c>
       <c r="Q3" s="8"/>
-      <c r="R3" s="18">
-        <v>-1</v>
-      </c>
-      <c r="S3" s="8"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" s="10"/>
+      <c r="W3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="6" t="s">
-        <v>11</v>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5225,7 +6783,7 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
@@ -5237,7 +6795,7 @@
       <c r="Q7" s="42"/>
       <c r="R7" s="43"/>
       <c r="S7" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T7" s="42"/>
       <c r="U7" s="42"/>
@@ -5249,7 +6807,7 @@
       <c r="AA7" s="42"/>
       <c r="AB7" s="43"/>
       <c r="AC7" s="41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD7" s="42"/>
       <c r="AE7" s="42"/>
@@ -5261,7 +6819,7 @@
       <c r="AK7" s="42"/>
       <c r="AL7" s="43"/>
       <c r="AM7" s="41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AN7" s="42"/>
       <c r="AO7" s="42"/>
@@ -5273,7 +6831,7 @@
       <c r="AU7" s="42"/>
       <c r="AV7" s="43"/>
       <c r="AW7" s="41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AX7" s="42"/>
       <c r="AY7" s="42"/>
@@ -5541,7 +7099,7 @@
     </row>
     <row r="12" spans="2:78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" s="15">
         <v>25</v>
@@ -5968,38 +7526,38 @@
     <mergeCell ref="BG7:BP7"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP23">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>PercentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>PercentagemConcluídaAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>RealAlém</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="24" priority="7">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:BP24">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>I$8=período_selecionado</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6032,18 +7590,687 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6146" r:id="rId5" name="Spinner 2">
+              <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:BQ32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="34.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
+    <col min="9" max="13" width="2.75" style="1"/>
+    <col min="14" max="14" width="2.75" style="1" customWidth="1"/>
+    <col min="15" max="28" width="2.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:69" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="I3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="61">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+    </row>
+    <row r="5" spans="2:69" x14ac:dyDescent="0.3">
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+    </row>
+    <row r="6" spans="2:69" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="45"/>
+      <c r="AZ6" s="45"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="45"/>
+      <c r="BC6" s="45"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="45"/>
+      <c r="BF6" s="45"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="45"/>
+      <c r="BI6" s="45"/>
+      <c r="BJ6" s="45"/>
+      <c r="BK6" s="45"/>
+      <c r="BL6" s="45"/>
+      <c r="BM6" s="45"/>
+      <c r="BN6" s="45"/>
+      <c r="BO6" s="45"/>
+      <c r="BP6" s="45"/>
+    </row>
+    <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX7" s="46"/>
+      <c r="AY7" s="46"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="46"/>
+      <c r="BC7" s="46"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="46"/>
+      <c r="BG7" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH7" s="46"/>
+      <c r="BI7" s="46"/>
+      <c r="BJ7" s="46"/>
+      <c r="BK7" s="46"/>
+      <c r="BL7" s="46"/>
+      <c r="BM7" s="46"/>
+      <c r="BN7" s="46"/>
+      <c r="BO7" s="46"/>
+      <c r="BP7" s="46"/>
+    </row>
+    <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3">
+        <v>7</v>
+      </c>
+      <c r="P8" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>9</v>
+      </c>
+      <c r="R8" s="3">
+        <v>10</v>
+      </c>
+      <c r="S8" s="3">
+        <v>11</v>
+      </c>
+      <c r="T8" s="3">
+        <v>12</v>
+      </c>
+      <c r="U8" s="3">
+        <v>13</v>
+      </c>
+      <c r="V8" s="3">
+        <v>14</v>
+      </c>
+      <c r="W8" s="3">
+        <v>15</v>
+      </c>
+      <c r="X8" s="3">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>18</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>21</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>23</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>24</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>26</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>27</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>28</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>29</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>30</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>31</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>32</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>33</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>34</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>35</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>36</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>37</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>38</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>39</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>40</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>41</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>42</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>43</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>44</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>45</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>46</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>47</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>48</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>49</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>50</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>51</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>52</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>53</v>
+      </c>
+      <c r="BJ8" s="3">
+        <v>54</v>
+      </c>
+      <c r="BK8" s="3">
+        <v>55</v>
+      </c>
+      <c r="BL8" s="3">
+        <v>56</v>
+      </c>
+      <c r="BM8" s="3">
+        <v>57</v>
+      </c>
+      <c r="BN8" s="3">
+        <v>58</v>
+      </c>
+      <c r="BO8" s="3">
+        <v>59</v>
+      </c>
+      <c r="BP8" s="3">
+        <v>60</v>
+      </c>
+      <c r="BQ8" s="1"/>
+    </row>
+    <row r="9" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="64">
+        <v>1</v>
+      </c>
+      <c r="D9" s="64">
+        <v>20</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="64">
+        <v>1</v>
+      </c>
+      <c r="D10" s="64">
+        <v>20</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="64">
+        <v>21</v>
+      </c>
+      <c r="D11" s="64">
+        <v>20</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+    </row>
+    <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="64">
+        <v>25</v>
+      </c>
+      <c r="D12" s="64">
+        <v>20</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+    </row>
+    <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="64">
+        <v>41</v>
+      </c>
+      <c r="D13" s="64">
+        <v>10</v>
+      </c>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:G4"/>
+    <mergeCell ref="I6:BP6"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:AB7"/>
+    <mergeCell ref="AC7:AL7"/>
+    <mergeCell ref="AM7:AV7"/>
+    <mergeCell ref="AW7:BF7"/>
+    <mergeCell ref="BG7:BP7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:BP13">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:BP14">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:BP8">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9217" r:id="rId4" name="Spinner 1">
+              <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
